--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD9612E0-E467-48B5-8AC0-39DEB19C52AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D3FB84-C9DA-484E-A0DF-9E0C7D57809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="bio" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
   <si>
     <t>I am a Project Assistant Professor the Department of Creative Informatics at the University of Tokyo, 
       supported by &lt;a href="https://www.riise.u-tokyo.ac.jp/en/research_programs/vxe" target="_blank"&gt;VXE&lt;/a&gt;
@@ -72,18 +72,12 @@
     <t>title</t>
   </si>
   <si>
-    <t>reconfigurable.png</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
     <t>no</t>
   </si>
   <si>
-    <t>Technical communications</t>
-  </si>
-  <si>
     <t>Technical paper</t>
   </si>
   <si>
@@ -321,9 +315,6 @@
     <t>online</t>
   </si>
   <si>
-    <t>Invited lecture VTID Lecture Series</t>
-  </si>
-  <si>
     <t>Virginia Tech</t>
   </si>
   <si>
@@ -424,6 +415,57 @@
   </si>
   <si>
     <t>upcycling_leftover_fabrics/ICCC_Fabric.pdf</t>
+  </si>
+  <si>
+    <t>VTID Lecture Series</t>
+  </si>
+  <si>
+    <t>venue</t>
+  </si>
+  <si>
+    <t>venue_page</t>
+  </si>
+  <si>
+    <t>title_page</t>
+  </si>
+  <si>
+    <t>JST Science Agora Exhibition</t>
+  </si>
+  <si>
+    <t>Tsugite Joinery</t>
+  </si>
+  <si>
+    <t>Computational Joinery with Mercari R4D</t>
+  </si>
+  <si>
+    <t>The University of Tokyo Science Gallery</t>
+  </si>
+  <si>
+    <t>2022-present</t>
+  </si>
+  <si>
+    <t>https://www.s.u-tokyo.ac.jp/en/gallery/exhibits/is001.html</t>
+  </si>
+  <si>
+    <t>Swirled Branches</t>
+  </si>
+  <si>
+    <t>SXSW Interactive Show</t>
+  </si>
+  <si>
+    <t>Lemon exhibition</t>
+  </si>
+  <si>
+    <t>Women in Graphics BOF</t>
+  </si>
+  <si>
+    <t>Technical Communication</t>
+  </si>
+  <si>
+    <t>reconfigurable_joints.jpg</t>
+  </si>
+  <si>
+    <t>reconfig_joints/reconfigurable_joints_preprint.pdf</t>
   </si>
 </sst>
 </file>
@@ -431,9 +473,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,6 +495,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -479,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -487,8 +535,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -501,6 +548,22 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -841,11 +904,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
-  <dimension ref="A1:O23"/>
+  <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="A2:XFD2"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -867,19 +930,19 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
@@ -900,302 +963,336 @@
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="O1" s="1"/>
+    </row>
+    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+      <c r="N3" s="7"/>
+      <c r="O3" s="7"/>
+    </row>
+    <row r="4" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+    </row>
+    <row r="5" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A5" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" s="7"/>
+    </row>
+    <row r="6" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I6" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+    </row>
+    <row r="7" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="I7" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-    </row>
-    <row r="3" spans="1:15" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="10" t="s">
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+    </row>
+    <row r="8" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+    </row>
+    <row r="9" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-    </row>
-    <row r="4" spans="1:15" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="N4" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="8"/>
-    </row>
-    <row r="5" spans="1:15" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="K5" s="8"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-    </row>
-    <row r="6" spans="1:15" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" s="8" t="s">
+      <c r="D9" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E6" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="8" t="s">
+      <c r="E9" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>47</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-    </row>
-    <row r="7" spans="1:15" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="F7" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-    </row>
-    <row r="8" spans="1:15" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="8" t="s">
+      <c r="H9" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-    </row>
-    <row r="9" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="L9" s="8"/>
-    </row>
-    <row r="10" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="L10" s="8"/>
-    </row>
-    <row r="11" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="L11" s="8"/>
-    </row>
-    <row r="12" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:15" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="17" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="5" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="J9" s="7"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+    </row>
+    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L10" s="7"/>
+    </row>
+    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L11" s="7"/>
+    </row>
+    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L12" s="7"/>
+    </row>
+    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="20" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B25" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B26" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C25" xr:uid="{863656FD-4371-4A45-A9AD-CD5D65DCDC09}">
-      <formula1>"Technical paper, Short technical paper, Technical communications, Poster, Ph.D. Thesis"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C28" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
+      <formula1>"Technical paper, Short technical paper, Poster, Ph.D. Thesis"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{D80C13BE-56CD-4A05-AECA-67E86129388E}">
+      <formula1>"Technical paper, Short technical paper, Technical Communication, Poster, Ph.D. Thesis"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I8" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
-    <hyperlink ref="H7" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
-    <hyperlink ref="I7" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
-    <hyperlink ref="K6" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
-    <hyperlink ref="I6" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
-    <hyperlink ref="H6" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
-    <hyperlink ref="I5" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
-    <hyperlink ref="H5" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
-    <hyperlink ref="I3" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
+    <hyperlink ref="I9" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
+    <hyperlink ref="H9" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
+    <hyperlink ref="H8" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
+    <hyperlink ref="I7" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
+    <hyperlink ref="H7" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
+    <hyperlink ref="I6" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
+    <hyperlink ref="H6" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
+    <hyperlink ref="I4" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
@@ -1216,12 +1313,199 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A82A9A4-A682-47E5-867E-575A6C2EBAD3}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="7" max="7" width="10.08984375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="C2" s="11"/>
+      <c r="D2" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G2" s="16">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="16"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="16"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="16"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="E7" s="15"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="16"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="16"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="16"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="16"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="16"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="16"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12" xr:uid="{A843C39B-3DD2-4971-847A-1BE926B6AD29}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{EE056280-6161-41E6-8675-14DE5EDFD940}"/>
+    <hyperlink ref="E2" r:id="rId2" xr:uid="{2B186953-7ED0-48EF-99D8-E74DC3C229BB}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1252,11 +1536,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
-  <dimension ref="A1:I27"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1269,460 +1553,532 @@
     <col min="8" max="8" width="12.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="7" t="s">
+    <row r="1" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="11"/>
+      <c r="E2" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="15"/>
+      <c r="G2" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="12">
+        <v>45630</v>
+      </c>
+      <c r="I2" s="12"/>
+      <c r="J2" s="13"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>99</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F1" s="7" t="s">
+      <c r="F3" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="H3" s="12">
+        <v>45547</v>
+      </c>
+      <c r="I3" s="12"/>
+      <c r="J3" s="13"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>104</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="H4" s="12">
+        <v>45481</v>
+      </c>
+      <c r="I4" s="12"/>
+      <c r="J4" s="13"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="12">
+        <v>45364</v>
+      </c>
+      <c r="I5" s="12"/>
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>109</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="12">
+        <v>45334</v>
+      </c>
+      <c r="I6" s="12"/>
+      <c r="J6" s="13"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="G7" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="H7" s="12">
+        <v>45177</v>
+      </c>
+      <c r="I7" s="12"/>
+      <c r="J7" s="13"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>102</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="H2" s="4">
-        <v>45547</v>
-      </c>
-      <c r="I2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A3" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" s="5" t="s">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="12">
+        <v>44841</v>
+      </c>
+      <c r="I8" s="12"/>
+      <c r="J8" s="13"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H9" s="12">
+        <v>44768</v>
+      </c>
+      <c r="I9" s="12"/>
+      <c r="J9" s="13"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H10" s="12">
+        <v>44638</v>
+      </c>
+      <c r="I10" s="12"/>
+      <c r="J10" s="13"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="H11" s="12">
+        <v>44539</v>
+      </c>
+      <c r="I11" s="12"/>
+      <c r="J11" s="13"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B12" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F3" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="H3" s="4">
-        <v>45481</v>
-      </c>
-      <c r="I3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A4" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C4" s="5"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="F4" s="5" t="s">
+      <c r="C12" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I12" s="12"/>
+      <c r="J12" s="13"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H4" s="4">
-        <v>45364</v>
-      </c>
-      <c r="I4" s="4"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D5" s="5" t="s">
+      <c r="F13" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="F5" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="G5" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="4">
-        <v>45334</v>
-      </c>
-      <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>104</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>105</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H6" s="4">
-        <v>45177</v>
-      </c>
-      <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>101</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="F7" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="G7" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H7" s="4">
-        <v>44841</v>
-      </c>
-      <c r="I7" s="4"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A8" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="G13" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="4">
-        <v>44768</v>
-      </c>
-      <c r="I8" s="4"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H9" s="4">
-        <v>44638</v>
-      </c>
-      <c r="I9" s="4"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>118</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="4">
-        <v>44539</v>
-      </c>
-      <c r="I10" s="4"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H11" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I11" s="4"/>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>115</v>
-      </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H12" s="4">
+      <c r="H13" s="12">
         <v>44065</v>
       </c>
-      <c r="I12" s="4"/>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A14" s="5"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A15" s="5"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="4"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="4"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="4"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="5"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="4"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="5"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="3"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="3"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="5"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="3"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="3"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="5"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="5"/>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="3"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="5"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="5"/>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="3"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="H27" s="3"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="13"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
+      <c r="J19" s="13"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
+      <c r="G20" s="11"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
+      <c r="J20" s="13"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="11"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="11"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="11"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
+      <c r="J21" s="13"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="11"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="13"/>
+      <c r="J22" s="13"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="11"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="11"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="13"/>
+      <c r="J23" s="13"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="11"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="11"/>
+      <c r="H24" s="14"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="14"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="14"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="11"/>
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="14"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="13"/>
+      <c r="B28" s="13"/>
+      <c r="C28" s="13"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="G28" s="13"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A25" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
       <formula1>"Invited talk, Paper presentation, Keynote, Selected presentation, Invited lecture, Opening presentation, Invited presentation"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F6" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
-    <hyperlink ref="F3" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
-    <hyperlink ref="F2" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
-    <hyperlink ref="F5" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
-    <hyperlink ref="D11" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
-    <hyperlink ref="F7" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
+    <hyperlink ref="F7" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
+    <hyperlink ref="F4" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
+    <hyperlink ref="F6" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
+    <hyperlink ref="D12" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
+    <hyperlink ref="F8" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
@@ -1748,64 +2104,52 @@
   <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:15" s="5" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="7"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7"/>
+      <c r="L1" s="7"/>
+      <c r="M1" s="7"/>
+      <c r="N1" s="7"/>
+      <c r="O1" s="7"/>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
-      <c r="L1" s="8"/>
-      <c r="M1" s="8"/>
-      <c r="N1" s="8"/>
-      <c r="O1" s="8"/>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>110</v>
-      </c>
-      <c r="G2" s="5" t="s">
+      <c r="B2" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="H2" s="4">
+      <c r="F2" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="H2" s="3">
         <v>45629</v>
       </c>
-      <c r="I2" s="4"/>
+      <c r="I2" s="3"/>
     </row>
   </sheetData>
   <dataValidations count="3">

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D3FB84-C9DA-484E-A0DF-9E0C7D57809C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D1A1D4-060C-498F-B243-58ADE10DE749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="bio" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
   <si>
     <t>I am a Project Assistant Professor the Department of Creative Informatics at the University of Tokyo, 
       supported by &lt;a href="https://www.riise.u-tokyo.ac.jp/en/research_programs/vxe" target="_blank"&gt;VXE&lt;/a&gt;
@@ -466,6 +466,15 @@
   </si>
   <si>
     <t>reconfig_joints/reconfigurable_joints_preprint.pdf</t>
+  </si>
+  <si>
+    <t>Computational Wood Talks</t>
+  </si>
+  <si>
+    <t>https://hybrid-materiality-lab.my.canva.site/computational-wood-at-kyoto-university</t>
+  </si>
+  <si>
+    <t>Kyoto University</t>
   </si>
 </sst>
 </file>
@@ -527,7 +536,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -562,9 +571,6 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -906,7 +912,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
@@ -992,7 +998,7 @@
       <c r="F2" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="1" t="s">
         <v>139</v>
       </c>
       <c r="H2" s="2"/>
@@ -1536,11 +1542,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1608,23 +1614,23 @@
         <v>8</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>117</v>
+        <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D3" s="11"/>
+        <v>140</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>141</v>
+      </c>
       <c r="E3" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F3" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>142</v>
+      </c>
+      <c r="F3" s="15"/>
       <c r="G3" s="11" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="H3" s="12">
-        <v>45547</v>
+        <v>45597</v>
       </c>
       <c r="I3" s="12"/>
       <c r="J3" s="13"/>
@@ -1634,45 +1640,47 @@
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G4" s="11" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H4" s="12">
-        <v>45481</v>
+        <v>45547</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>97</v>
+        <v>71</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F5" s="11" t="s">
-        <v>110</v>
+        <v>78</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>104</v>
       </c>
       <c r="G5" s="11" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="H5" s="12">
-        <v>45364</v>
+        <v>45481</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
@@ -1682,25 +1690,21 @@
         <v>9</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D6" s="11" t="s">
-        <v>108</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>109</v>
+        <v>80</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="H6" s="12">
-        <v>45334</v>
+        <v>45364</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
@@ -1710,25 +1714,25 @@
         <v>9</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>101</v>
+        <v>82</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H7" s="12">
-        <v>45177</v>
+        <v>45334</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
@@ -1741,20 +1745,22 @@
         <v>117</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D8" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="E8" s="11" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="H8" s="12">
-        <v>44841</v>
+        <v>45177</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
@@ -1764,21 +1770,23 @@
         <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>87</v>
+        <v>98</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="G9" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H9" s="12">
-        <v>44768</v>
+        <v>44841</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
@@ -1791,18 +1799,18 @@
         <v>72</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="D10" s="11"/>
       <c r="E10" s="11" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11" t="s">
         <v>88</v>
       </c>
       <c r="H10" s="12">
-        <v>44638</v>
+        <v>44768</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
@@ -1812,21 +1820,21 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C11" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>123</v>
+      </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="11" t="s">
-        <v>115</v>
-      </c>
+        <v>89</v>
+      </c>
+      <c r="F11" s="11"/>
       <c r="G11" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H11" s="12">
-        <v>44539</v>
+        <v>44638</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
@@ -1836,23 +1844,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>114</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>90</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>115</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
+      </c>
+      <c r="H12" s="12">
+        <v>44539</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="13"/>
@@ -1862,37 +1868,51 @@
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D13" s="11"/>
+        <v>93</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>114</v>
+      </c>
       <c r="E13" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F13" s="11" t="s">
-        <v>111</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="12">
-        <v>44065</v>
+      <c r="H13" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A14" s="11"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
+      <c r="A14" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="13"/>
+      <c r="E14" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H14" s="12">
+        <v>44065</v>
+      </c>
+      <c r="I14" s="12"/>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
@@ -1987,7 +2007,7 @@
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="14"/>
+      <c r="H22" s="12"/>
       <c r="I22" s="13"/>
       <c r="J22" s="13"/>
     </row>
@@ -2052,36 +2072,49 @@
       <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A28" s="13"/>
-      <c r="B28" s="13"/>
-      <c r="C28" s="13"/>
-      <c r="D28" s="13"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="11"/>
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
       <c r="H28" s="14"/>
       <c r="I28" s="13"/>
       <c r="J28" s="13"/>
     </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="13"/>
+      <c r="B29" s="13"/>
+      <c r="C29" s="13"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="14"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A26" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A27" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
       <formula1>"Invited talk, Paper presentation, Keynote, Selected presentation, Invited lecture, Opening presentation, Invited presentation"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F7" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
-    <hyperlink ref="F4" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
-    <hyperlink ref="F3" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
-    <hyperlink ref="F6" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
-    <hyperlink ref="D12" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
-    <hyperlink ref="F8" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
+    <hyperlink ref="F5" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
+    <hyperlink ref="F4" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
+    <hyperlink ref="F7" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
+    <hyperlink ref="D13" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
+    <hyperlink ref="F9" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
+    <hyperlink ref="D3" r:id="rId7" xr:uid="{34355159-367A-4386-8EA1-41F107F01C00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
 </worksheet>
 </file>
 

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07D1A1D4-060C-498F-B243-58ADE10DE749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA17314-8C44-48C0-9093-FCDE46BAE011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="bio" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
   <si>
     <t>I am a Project Assistant Professor the Department of Creative Informatics at the University of Tokyo, 
       supported by &lt;a href="https://www.riise.u-tokyo.ac.jp/en/research_programs/vxe" target="_blank"&gt;VXE&lt;/a&gt;
@@ -475,6 +475,9 @@
   </si>
   <si>
     <t>Kyoto University</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/10.1145/3681758.3698006</t>
   </si>
 </sst>
 </file>
@@ -536,7 +539,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -571,6 +574,9 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -912,9 +918,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1002,7 +1008,9 @@
         <v>139</v>
       </c>
       <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
+      <c r="I2" s="17" t="s">
+        <v>143</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1299,9 +1307,10 @@
     <hyperlink ref="I6" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
     <hyperlink ref="H6" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
     <hyperlink ref="I4" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
+    <hyperlink ref="I2" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId11"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -1544,7 +1553,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4FA17314-8C44-48C0-9093-FCDE46BAE011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB9F2C4-35EE-4D42-A2E0-0BCADC10C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
   <si>
     <t>I am a Project Assistant Professor the Department of Creative Informatics at the University of Tokyo, 
       supported by &lt;a href="https://www.riise.u-tokyo.ac.jp/en/research_programs/vxe" target="_blank"&gt;VXE&lt;/a&gt;
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>https://dl.acm.org/doi/10.1145/3681758.3698006</t>
+  </si>
+  <si>
+    <t>award</t>
+  </si>
+  <si>
+    <t>Honorable Mention</t>
   </si>
 </sst>
 </file>
@@ -597,9 +603,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -637,7 +643,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -743,7 +749,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -885,7 +891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -918,9 +924,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -938,6 +944,7 @@
     <col min="11" max="12" width="34.81640625" customWidth="1"/>
     <col min="13" max="13" width="35.90625" customWidth="1"/>
     <col min="14" max="14" width="38.81640625" customWidth="1"/>
+    <col min="15" max="15" width="43.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.35">
@@ -983,7 +990,9 @@
       <c r="N1" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="O1" s="1"/>
+      <c r="O1" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
@@ -1016,7 +1025,9 @@
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="1"/>
+      <c r="O2" s="1" t="s">
+        <v>145</v>
+      </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADB9F2C4-35EE-4D42-A2E0-0BCADC10C53A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22328709-C72B-45D1-AD2A-148F1827AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="18000" windowHeight="11170" firstSheet="1" activeTab="1" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="bio" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
   <si>
     <t>I am a Project Assistant Professor the Department of Creative Informatics at the University of Tokyo, 
       supported by &lt;a href="https://www.riise.u-tokyo.ac.jp/en/research_programs/vxe" target="_blank"&gt;VXE&lt;/a&gt;
@@ -484,6 +484,9 @@
   </si>
   <si>
     <t>Honorable Mention</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AxS3vhgVuBM</t>
   </si>
 </sst>
 </file>
@@ -924,9 +927,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O2" sqref="O2"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1016,7 +1019,9 @@
       <c r="G2" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="17" t="s">
+        <v>146</v>
+      </c>
       <c r="I2" s="17" t="s">
         <v>143</v>
       </c>
@@ -1319,9 +1324,10 @@
     <hyperlink ref="H6" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
     <hyperlink ref="I4" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
     <hyperlink ref="I2" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
+    <hyperlink ref="H2" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22328709-C72B-45D1-AD2A-148F1827AA44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0972EC4C-54C0-40D4-B943-19ABC01E7895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="18000" windowHeight="11170" firstSheet="1" activeTab="1" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="bio" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
   <si>
     <t>I am a Project Assistant Professor the Department of Creative Informatics at the University of Tokyo, 
       supported by &lt;a href="https://www.riise.u-tokyo.ac.jp/en/research_programs/vxe" target="_blank"&gt;VXE&lt;/a&gt;
@@ -456,9 +456,6 @@
     <t>Lemon exhibition</t>
   </si>
   <si>
-    <t>Women in Graphics BOF</t>
-  </si>
-  <si>
     <t>Technical Communication</t>
   </si>
   <si>
@@ -487,6 +484,21 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=AxS3vhgVuBM</t>
+  </si>
+  <si>
+    <t>Tohoku University</t>
+  </si>
+  <si>
+    <t>Sendai</t>
+  </si>
+  <si>
+    <t>Seminar on Sustainable Forestry and Wood Construction</t>
+  </si>
+  <si>
+    <t>Women in CG, BOF event</t>
+  </si>
+  <si>
+    <t>Linnaeus University</t>
   </si>
 </sst>
 </file>
@@ -927,7 +939,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:O24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+    <sheetView topLeftCell="H1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
@@ -994,18 +1006,18 @@
         <v>119</v>
       </c>
       <c r="O1" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>11</v>
@@ -1017,13 +1029,13 @@
         <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H2" s="17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="I2" s="17" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1031,7 +1043,7 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
@@ -1568,11 +1580,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1611,7 +1623,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>8</v>
       </c>
@@ -1619,7 +1631,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -1632,10 +1644,8 @@
       <c r="H2" s="12">
         <v>45630</v>
       </c>
-      <c r="I2" s="12"/>
-      <c r="J2" s="13"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>8</v>
       </c>
@@ -1643,46 +1653,38 @@
         <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>141</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="D3" s="8"/>
       <c r="E3" s="11" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="11" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="H3" s="12">
-        <v>45597</v>
-      </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="13"/>
+        <v>45630</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>99</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C4" s="11"/>
       <c r="D4" s="11"/>
       <c r="E4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F4" s="15"/>
       <c r="G4" s="11" t="s">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="H4" s="12">
-        <v>45547</v>
+        <v>45622</v>
       </c>
       <c r="I4" s="12"/>
       <c r="J4" s="13"/>
@@ -1692,73 +1694,73 @@
         <v>8</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
+        <v>70</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>140</v>
+      </c>
       <c r="E5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="15" t="s">
-        <v>104</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="F5" s="15"/>
       <c r="G5" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H5" s="12">
-        <v>45481</v>
+        <v>45597</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C6" s="11"/>
+        <v>117</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="D6" s="11"/>
       <c r="E6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>110</v>
+        <v>77</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="H6" s="12">
-        <v>45364</v>
+        <v>45547</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="11" t="s">
-        <v>108</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>100</v>
+        <v>78</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="H7" s="12">
-        <v>45334</v>
+        <v>45481</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
@@ -1768,25 +1770,21 @@
         <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" s="11" t="s">
-        <v>102</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="C8" s="11"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F8" s="15" t="s">
-        <v>103</v>
+        <v>80</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>110</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="H8" s="12">
-        <v>45177</v>
+        <v>45364</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
@@ -1796,23 +1794,25 @@
         <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>117</v>
+        <v>73</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D9" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>108</v>
+      </c>
       <c r="E9" s="11" t="s">
-        <v>77</v>
+        <v>100</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H9" s="12">
-        <v>44841</v>
+        <v>45334</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
@@ -1822,21 +1822,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="D10" s="11"/>
+        <v>101</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>102</v>
+      </c>
       <c r="E10" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F10" s="11"/>
+        <v>84</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>103</v>
+      </c>
       <c r="G10" s="11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H10" s="12">
-        <v>44768</v>
+        <v>45177</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
@@ -1846,21 +1850,23 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>72</v>
+        <v>117</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="11"/>
+        <v>77</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>106</v>
+      </c>
       <c r="G11" s="11" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="H11" s="12">
-        <v>44638</v>
+        <v>44841</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
@@ -1870,21 +1876,21 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C12" s="11"/>
+        <v>72</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>87</v>
+      </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="11" t="s">
-        <v>115</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="F12" s="11"/>
       <c r="G12" s="11" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H12" s="12">
-        <v>44539</v>
+        <v>44768</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="13"/>
@@ -1894,23 +1900,21 @@
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>114</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="H13" s="12" t="s">
-        <v>92</v>
+      <c r="H13" s="12">
+        <v>44638</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="13"/>
@@ -1920,49 +1924,75 @@
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>112</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="C14" s="11"/>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="G14" s="11" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H14" s="12">
-        <v>44065</v>
+        <v>44539</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="11"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11"/>
+      <c r="A15" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>93</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>114</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>94</v>
+      </c>
       <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="12"/>
-      <c r="I15" s="13"/>
+      <c r="G15" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="I15" s="12"/>
       <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="11"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
+      <c r="A16" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>112</v>
+      </c>
       <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="12"/>
-      <c r="I16" s="13"/>
+      <c r="E16" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="12">
+        <v>44065</v>
+      </c>
+      <c r="I16" s="12"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -2045,7 +2075,7 @@
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="14"/>
+      <c r="H23" s="12"/>
       <c r="I23" s="13"/>
       <c r="J23" s="13"/>
     </row>
@@ -2057,7 +2087,7 @@
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="14"/>
+      <c r="H24" s="12"/>
       <c r="I24" s="13"/>
       <c r="J24" s="13"/>
     </row>
@@ -2110,34 +2140,58 @@
       <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="13"/>
-      <c r="B29" s="13"/>
-      <c r="C29" s="13"/>
-      <c r="D29" s="13"/>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
-      <c r="G29" s="13"/>
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="11"/>
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
       <c r="H29" s="14"/>
       <c r="I29" s="13"/>
       <c r="J29" s="13"/>
     </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="13"/>
+      <c r="B31" s="13"/>
+      <c r="C31" s="13"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="G31" s="13"/>
+      <c r="H31" s="14"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A27" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B31" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
       <formula1>"Invited talk, Paper presentation, Keynote, Selected presentation, Invited lecture, Opening presentation, Invited presentation"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F8" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
-    <hyperlink ref="F5" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
-    <hyperlink ref="F4" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
-    <hyperlink ref="F7" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
-    <hyperlink ref="D13" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
-    <hyperlink ref="F9" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
-    <hyperlink ref="D3" r:id="rId7" xr:uid="{34355159-367A-4386-8EA1-41F107F01C00}"/>
+    <hyperlink ref="F10" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
+    <hyperlink ref="F7" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
+    <hyperlink ref="F6" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
+    <hyperlink ref="F9" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
+    <hyperlink ref="D15" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
+    <hyperlink ref="F11" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
+    <hyperlink ref="D5" r:id="rId7" xr:uid="{34355159-367A-4386-8EA1-41F107F01C00}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0972EC4C-54C0-40D4-B943-19ABC01E7895}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5B289A-5AEB-412C-91C1-8AA61FAB270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -492,13 +492,13 @@
     <t>Sendai</t>
   </si>
   <si>
-    <t>Seminar on Sustainable Forestry and Wood Construction</t>
-  </si>
-  <si>
     <t>Women in CG, BOF event</t>
   </si>
   <si>
     <t>Linnaeus University</t>
+  </si>
+  <si>
+    <t>Seminar on Sustainable Wood Construction</t>
   </si>
 </sst>
 </file>
@@ -1584,7 +1584,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1631,7 +1631,7 @@
         <v>70</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2" s="11"/>
       <c r="E2" s="11" t="s">
@@ -1653,11 +1653,11 @@
         <v>70</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D3" s="8"/>
       <c r="E3" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="11" t="s">

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E5B289A-5AEB-412C-91C1-8AA61FAB270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BFDEBD-AC83-490B-A79C-4C9CE6FE302E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="165">
   <si>
     <t>I am a Project Assistant Professor the Department of Creative Informatics at the University of Tokyo, 
       supported by &lt;a href="https://www.riise.u-tokyo.ac.jp/en/research_programs/vxe" target="_blank"&gt;VXE&lt;/a&gt;
@@ -216,9 +216,6 @@
     <t>learned_inference/Learned_Inference_of_Annual_Ring_Pattern_of_Solid_Wood.pdf</t>
   </si>
   <si>
-    <t>Short technical paper</t>
-  </si>
-  <si>
     <t>Ph.D. Thesis</t>
   </si>
   <si>
@@ -499,6 +496,51 @@
   </si>
   <si>
     <t>Seminar on Sustainable Wood Construction</t>
+  </si>
+  <si>
+    <t>Paper</t>
+  </si>
+  <si>
+    <t>Short paper</t>
+  </si>
+  <si>
+    <t>Work-in-progress paper</t>
+  </si>
+  <si>
+    <t>Draw2Cut: Direct On-Material Annotations for CNC Milling</t>
+  </si>
+  <si>
+    <t>Xinyue Gui, Ding Xia, Wang Gao, Mustafa Doga Dogan, Maria Larsson, and Takeo Igarashi</t>
+  </si>
+  <si>
+    <t>preprint_pdf</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2501.18951</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/abs/2501.15413　</t>
+  </si>
+  <si>
+    <t>XR-penter: Material-Aware, Improvisational Woodwork Design In-Situ</t>
+  </si>
+  <si>
+    <t>Ramya Iyer, Mustafa Doga Dogan, Maria Larsson, and Takeo Igarashi</t>
+  </si>
+  <si>
+    <t>xrpenter2.jpg</t>
+  </si>
+  <si>
+    <t>draw2cut2.jpg</t>
+  </si>
+  <si>
+    <t>Human Factors in Computing Systems (CHI) 2025 - conditionally accepted</t>
+  </si>
+  <si>
+    <t>Technology Interaction Research</t>
+  </si>
+  <si>
+    <t>https://hy-ma.com/event-2025-02-10</t>
   </si>
 </sst>
 </file>
@@ -560,7 +602,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -599,6 +641,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -937,11 +980,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
-  <dimension ref="A1:O24"/>
+  <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
+      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -960,9 +1003,10 @@
     <col min="13" max="13" width="35.90625" customWidth="1"/>
     <col min="14" max="14" width="38.81640625" customWidth="1"/>
     <col min="15" max="15" width="43.7265625" customWidth="1"/>
+    <col min="16" max="16" width="29.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>21</v>
       </c>
@@ -997,155 +1041,156 @@
         <v>3</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" ht="29" x14ac:dyDescent="0.35">
+        <v>142</v>
+      </c>
+      <c r="P1" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>137</v>
+        <v>160</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>136</v>
+        <v>150</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>11</v>
+        <v>158</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="H2" s="17" t="s">
-        <v>145</v>
-      </c>
-      <c r="I2" s="17" t="s">
-        <v>142</v>
-      </c>
+        <v>159</v>
+      </c>
+      <c r="G2" s="1"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
-      <c r="O2" s="1" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="O2" s="1"/>
+      <c r="P2" s="18" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>60</v>
+        <v>161</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>12</v>
+        <v>153</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>28</v>
+        <v>162</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="7"/>
-      <c r="L3" s="7"/>
-      <c r="M3" s="7"/>
-      <c r="N3" s="7"/>
-      <c r="O3" s="7"/>
-    </row>
-    <row r="4" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="G3" s="1"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="18" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="7" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>10</v>
+        <v>135</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="9" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="7"/>
-      <c r="L4" s="7"/>
-      <c r="M4" s="7"/>
-      <c r="N4" s="7"/>
-      <c r="O4" s="7"/>
-    </row>
-    <row r="5" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>57</v>
+        <v>151</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G5" s="7"/>
+        <v>31</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>121</v>
+      </c>
       <c r="H5" s="7"/>
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="7"/>
       <c r="L5" s="7"/>
-      <c r="M5" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="N5" s="7" t="s">
-        <v>52</v>
-      </c>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
       <c r="O5" s="7"/>
     </row>
-    <row r="6" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:16" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B6" s="7" t="s">
         <v>9</v>
@@ -1154,76 +1199,64 @@
         <v>10</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>50</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="H6" s="7"/>
       <c r="I6" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>48</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="J6" s="7"/>
       <c r="K6" s="7"/>
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="7"/>
       <c r="O6" s="7"/>
     </row>
-    <row r="7" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:16" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="7" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="I7" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="K7" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="M7" s="7"/>
-      <c r="N7" s="7"/>
+        <v>57</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="J7" s="7"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="N7" s="7" t="s">
+        <v>52</v>
+      </c>
       <c r="O7" s="7"/>
     </row>
-    <row r="8" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="7" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>9</v>
@@ -1232,78 +1265,154 @@
         <v>10</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="J8" s="7"/>
+        <v>49</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="K8" s="7"/>
       <c r="L8" s="7"/>
       <c r="M8" s="7"/>
       <c r="N8" s="7"/>
       <c r="O8" s="7"/>
     </row>
-    <row r="9" spans="1:15" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:16" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="7" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>56</v>
+        <v>150</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="I9" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="J9" s="7"/>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
+        <v>45</v>
+      </c>
+      <c r="J9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="L9" s="7" t="s">
+        <v>120</v>
+      </c>
       <c r="M9" s="7"/>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
     </row>
-    <row r="10" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:16" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="7"/>
+      <c r="K10" s="7"/>
       <c r="L10" s="7"/>
-    </row>
-    <row r="11" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+    </row>
+    <row r="11" spans="1:16" s="4" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="I11" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="7"/>
-    </row>
-    <row r="12" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+    </row>
+    <row r="12" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L12" s="7"/>
     </row>
-    <row r="13" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="14" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="15" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L13" s="7"/>
+    </row>
+    <row r="14" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L14" s="7"/>
+    </row>
+    <row r="15" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="17" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -1312,34 +1421,38 @@
     <row r="22" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="23" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="24" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" s="4" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B26" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C10:C28" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C30" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
       <formula1>"Technical paper, Short technical paper, Poster, Ph.D. Thesis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C9" xr:uid="{D80C13BE-56CD-4A05-AECA-67E86129388E}">
-      <formula1>"Technical paper, Short technical paper, Technical Communication, Poster, Ph.D. Thesis"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{D80C13BE-56CD-4A05-AECA-67E86129388E}">
+      <formula1>"Technical paper, Work-in-progress paper, Paper, Short paper, Short technical paper, Technical Communication, Poster, Ph.D. Thesis"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I9" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
-    <hyperlink ref="H9" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
-    <hyperlink ref="H8" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
-    <hyperlink ref="K7" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
-    <hyperlink ref="I7" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
-    <hyperlink ref="H7" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
-    <hyperlink ref="I6" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
-    <hyperlink ref="H6" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
-    <hyperlink ref="I4" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
-    <hyperlink ref="I2" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
-    <hyperlink ref="H2" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
+    <hyperlink ref="I11" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
+    <hyperlink ref="H11" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
+    <hyperlink ref="H10" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
+    <hyperlink ref="I10" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
+    <hyperlink ref="K9" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
+    <hyperlink ref="I9" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
+    <hyperlink ref="H9" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
+    <hyperlink ref="I8" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
+    <hyperlink ref="H8" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
+    <hyperlink ref="I6" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
+    <hyperlink ref="I4" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
+    <hyperlink ref="H4" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
+    <hyperlink ref="P3" r:id="rId13" xr:uid="{EB82A5BE-BD69-485F-ACF0-CAF4FBC88D49}"/>
+    <hyperlink ref="P2" r:id="rId14" xr:uid="{9EFC85AB-BEE3-4054-974A-17ED17E537CF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId13"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
 </worksheet>
 </file>
 
@@ -1376,19 +1489,19 @@
         <v>7</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D1" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="6" t="s">
-        <v>125</v>
-      </c>
       <c r="F1" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -1396,17 +1509,17 @@
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G2" s="16">
         <v>2024</v>
@@ -1417,20 +1530,20 @@
         <v>9</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C3" s="11"/>
       <c r="D3" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="F3" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G3" s="16" t="s">
         <v>130</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="F3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -1438,7 +1551,7 @@
         <v>9</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -1451,7 +1564,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="11"/>
@@ -1464,7 +1577,7 @@
         <v>9</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="11"/>
@@ -1479,7 +1592,7 @@
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E7" s="15"/>
       <c r="F7" s="11"/>
@@ -1580,11 +1693,11 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1605,22 +1718,22 @@
         <v>19</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E1" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G1" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="F1" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="6" t="s">
         <v>68</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1628,21 +1741,25 @@
         <v>8</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="D2" s="11"/>
+        <v>163</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>164</v>
+      </c>
       <c r="E2" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="F2" s="15"/>
+        <v>99</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>108</v>
+      </c>
       <c r="G2" s="11" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="H2" s="12">
-        <v>45630</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
@@ -1650,67 +1767,63 @@
         <v>8</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="D3" s="8"/>
+        <v>147</v>
+      </c>
+      <c r="D3" s="11"/>
       <c r="E3" s="11" t="s">
-        <v>149</v>
+        <v>75</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="11" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="H3" s="12">
         <v>45630</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:10" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
+        <v>69</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="D4" s="8"/>
       <c r="E4" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="11" t="s">
-        <v>147</v>
+        <v>87</v>
       </c>
       <c r="H4" s="12">
-        <v>45622</v>
-      </c>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
+        <v>45630</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>140</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
       <c r="E5" s="11" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="11" t="s">
-        <v>81</v>
+        <v>146</v>
       </c>
       <c r="H5" s="12">
-        <v>45597</v>
+        <v>45622</v>
       </c>
       <c r="I5" s="12"/>
       <c r="J5" s="13"/>
@@ -1720,47 +1833,49 @@
         <v>8</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>117</v>
+        <v>69</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" s="11"/>
+        <v>138</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>139</v>
+      </c>
       <c r="E6" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>105</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="F6" s="15"/>
       <c r="G6" s="11" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="H6" s="12">
-        <v>45547</v>
+        <v>45597</v>
       </c>
       <c r="I6" s="12"/>
       <c r="J6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="11"/>
+        <v>116</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" s="11"/>
       <c r="E7" s="11" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>104</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="H7" s="12">
-        <v>45481</v>
+        <v>45547</v>
       </c>
       <c r="I7" s="12"/>
       <c r="J7" s="13"/>
@@ -1770,21 +1885,21 @@
         <v>9</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C8" s="11"/>
       <c r="D8" s="11"/>
       <c r="E8" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>110</v>
+        <v>77</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>103</v>
       </c>
       <c r="G8" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H8" s="12">
-        <v>45364</v>
+        <v>45481</v>
       </c>
       <c r="I8" s="12"/>
       <c r="J8" s="13"/>
@@ -1794,25 +1909,21 @@
         <v>9</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>108</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
       <c r="E9" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F9" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H9" s="12">
-        <v>45334</v>
+        <v>45364</v>
       </c>
       <c r="I9" s="12"/>
       <c r="J9" s="13"/>
@@ -1822,25 +1933,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="D10" s="11" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H10" s="12">
-        <v>45177</v>
+        <v>45334</v>
       </c>
       <c r="I10" s="12"/>
       <c r="J10" s="13"/>
@@ -1850,23 +1961,25 @@
         <v>9</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="11"/>
+        <v>100</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="E11" s="11" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="H11" s="12">
-        <v>44841</v>
+        <v>45177</v>
       </c>
       <c r="I11" s="12"/>
       <c r="J11" s="13"/>
@@ -1876,21 +1989,23 @@
         <v>9</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>87</v>
+        <v>97</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F12" s="11"/>
+        <v>76</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>105</v>
+      </c>
       <c r="G12" s="11" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="H12" s="12">
-        <v>44768</v>
+        <v>44841</v>
       </c>
       <c r="I12" s="12"/>
       <c r="J12" s="13"/>
@@ -1900,21 +2015,21 @@
         <v>9</v>
       </c>
       <c r="B13" s="11" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H13" s="12">
-        <v>44638</v>
+        <v>44768</v>
       </c>
       <c r="I13" s="12"/>
       <c r="J13" s="13"/>
@@ -1924,21 +2039,21 @@
         <v>9</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>117</v>
-      </c>
-      <c r="C14" s="11"/>
+        <v>71</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>122</v>
+      </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F14" s="11" t="s">
-        <v>115</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="F14" s="11"/>
       <c r="G14" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H14" s="12">
-        <v>44539</v>
+        <v>44638</v>
       </c>
       <c r="I14" s="12"/>
       <c r="J14" s="13"/>
@@ -1948,23 +2063,21 @@
         <v>9</v>
       </c>
       <c r="B15" s="11" t="s">
-        <v>73</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F15" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="F15" s="11"/>
       <c r="G15" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H15" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
+      </c>
+      <c r="H15" s="12">
+        <v>44539</v>
       </c>
       <c r="I15" s="12"/>
       <c r="J15" s="13"/>
@@ -1974,37 +2087,51 @@
         <v>9</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>97</v>
+        <v>72</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="11"/>
+        <v>92</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>113</v>
+      </c>
       <c r="E16" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>111</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="F16" s="11"/>
       <c r="G16" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="H16" s="12">
-        <v>44065</v>
+        <v>87</v>
+      </c>
+      <c r="H16" s="12" t="s">
+        <v>91</v>
       </c>
       <c r="I16" s="12"/>
       <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
+      <c r="A17" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>111</v>
+      </c>
       <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="13"/>
+      <c r="E17" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>110</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H17" s="12">
+        <v>44065</v>
+      </c>
+      <c r="I17" s="12"/>
       <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
@@ -2099,7 +2226,7 @@
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="14"/>
+      <c r="H25" s="12"/>
       <c r="I25" s="13"/>
       <c r="J25" s="13"/>
     </row>
@@ -2164,37 +2291,51 @@
       <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="13"/>
-      <c r="B31" s="13"/>
-      <c r="C31" s="13"/>
-      <c r="D31" s="13"/>
-      <c r="E31" s="13"/>
-      <c r="F31" s="13"/>
-      <c r="G31" s="13"/>
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="11"/>
+      <c r="E31" s="11"/>
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
       <c r="H31" s="14"/>
       <c r="I31" s="13"/>
       <c r="J31" s="13"/>
     </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="13"/>
+      <c r="B32" s="13"/>
+      <c r="C32" s="13"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="G32" s="13"/>
+      <c r="H32" s="14"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A29" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B33" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B34" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
       <formula1>"Invited talk, Paper presentation, Keynote, Selected presentation, Invited lecture, Opening presentation, Invited presentation"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F10" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
-    <hyperlink ref="F7" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
-    <hyperlink ref="F6" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
-    <hyperlink ref="F9" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
-    <hyperlink ref="D15" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
-    <hyperlink ref="F11" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
-    <hyperlink ref="D5" r:id="rId7" xr:uid="{34355159-367A-4386-8EA1-41F107F01C00}"/>
+    <hyperlink ref="F11" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
+    <hyperlink ref="F8" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
+    <hyperlink ref="F7" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
+    <hyperlink ref="F10" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
+    <hyperlink ref="D16" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
+    <hyperlink ref="F12" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
+    <hyperlink ref="D6" r:id="rId7" xr:uid="{34355159-367A-4386-8EA1-41F107F01C00}"/>
+    <hyperlink ref="F2" r:id="rId8" xr:uid="{06C5679C-AB59-4513-A73D-A58986320FB0}"/>
+    <hyperlink ref="D2" r:id="rId9" xr:uid="{F23263A3-02A8-4F59-A063-C73420A9989E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 
@@ -2244,20 +2385,20 @@
         <v>8</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="H2" s="3">
         <v>45629</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04BFDEBD-AC83-490B-A79C-4C9CE6FE302E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C5759A-B5A6-47C3-B5AB-0989F93D178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="bio" sheetId="9" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="167">
   <si>
     <t>I am a Project Assistant Professor the Department of Creative Informatics at the University of Tokyo, 
       supported by &lt;a href="https://www.riise.u-tokyo.ac.jp/en/research_programs/vxe" target="_blank"&gt;VXE&lt;/a&gt;
@@ -516,12 +516,6 @@
     <t>preprint_pdf</t>
   </si>
   <si>
-    <t>https://arxiv.org/abs/2501.18951</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/abs/2501.15413　</t>
-  </si>
-  <si>
     <t>XR-penter: Material-Aware, Improvisational Woodwork Design In-Situ</t>
   </si>
   <si>
@@ -541,6 +535,18 @@
   </si>
   <si>
     <t>https://hy-ma.com/event-2025-02-10</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1HbAy_nCj0o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=F5o5gKcjsQI</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2501.15413</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2501.18951</t>
   </si>
 </sst>
 </file>
@@ -982,9 +988,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C13" sqref="C13"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1058,7 +1064,7 @@
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B2" s="7" t="s">
         <v>8</v>
@@ -1067,16 +1073,18 @@
         <v>150</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="G2" s="1"/>
-      <c r="H2" s="17"/>
+      <c r="H2" s="17" t="s">
+        <v>164</v>
+      </c>
       <c r="I2" s="17"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -1085,12 +1093,12 @@
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
       <c r="P2" s="18" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>8</v>
@@ -1102,13 +1110,15 @@
         <v>153</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F3" s="7" t="s">
         <v>154</v>
       </c>
       <c r="G3" s="1"/>
-      <c r="H3" s="17"/>
+      <c r="H3" s="17" t="s">
+        <v>163</v>
+      </c>
       <c r="I3" s="17"/>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1117,7 +1127,7 @@
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
       <c r="P3" s="18" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
     </row>
     <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -1450,9 +1460,11 @@
     <hyperlink ref="H4" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
     <hyperlink ref="P3" r:id="rId13" xr:uid="{EB82A5BE-BD69-485F-ACF0-CAF4FBC88D49}"/>
     <hyperlink ref="P2" r:id="rId14" xr:uid="{9EFC85AB-BEE3-4054-974A-17ED17E537CF}"/>
+    <hyperlink ref="H3" r:id="rId15" xr:uid="{D2124DA5-21CA-4C5C-90D9-FAE4DBCFE470}"/>
+    <hyperlink ref="H2" r:id="rId16" xr:uid="{DC553953-6A36-4D7D-B907-7E8C7FDD75F8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId15"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
 </worksheet>
 </file>
 
@@ -1695,9 +1707,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1744,10 +1756,10 @@
         <v>69</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E2" s="11" t="s">
         <v>99</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF5AFF6-98B6-4BC4-A644-2E973A638229}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E6F50-764C-4A3A-8998-501B32903E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="7" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="287">
   <si>
     <t>doi</t>
   </si>
@@ -661,9 +661,6 @@
     <t>WiGRAPH</t>
   </si>
   <si>
-    <t>Excecutive Committee</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 2024-present</t>
   </si>
   <si>
@@ -887,6 +884,15 @@
   </si>
   <si>
     <t>patch/ICCC_Fabric.pdf</t>
+  </si>
+  <si>
+    <t>Executive Committee</t>
+  </si>
+  <si>
+    <t>Pacific Graphics 2025</t>
+  </si>
+  <si>
+    <t>https://pg2025.nccu.edu.tw/</t>
   </si>
 </sst>
 </file>
@@ -1307,28 +1313,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:P26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.08984375" customWidth="1"/>
-    <col min="2" max="2" width="6.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" customWidth="1"/>
-    <col min="4" max="4" width="41.6328125" customWidth="1"/>
-    <col min="5" max="5" width="32.90625" customWidth="1"/>
-    <col min="6" max="6" width="54.7265625" customWidth="1"/>
-    <col min="7" max="7" width="52.54296875" customWidth="1"/>
-    <col min="8" max="8" width="50.90625" customWidth="1"/>
-    <col min="9" max="9" width="51" customWidth="1"/>
-    <col min="10" max="10" width="30" customWidth="1"/>
-    <col min="11" max="12" width="34.81640625" customWidth="1"/>
-    <col min="13" max="13" width="35.90625" customWidth="1"/>
-    <col min="14" max="14" width="38.81640625" customWidth="1"/>
-    <col min="15" max="15" width="43.7265625" customWidth="1"/>
-    <col min="16" max="16" width="29.7265625" customWidth="1"/>
+    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="54.26953125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="51.81640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="50.453125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="34.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="35.36328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="38.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="28.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
@@ -1383,7 +1390,7 @@
     </row>
     <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -1417,7 +1424,7 @@
     </row>
     <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -1451,7 +1458,7 @@
     </row>
     <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1488,7 +1495,7 @@
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -1506,7 +1513,7 @@
         <v>29</v>
       </c>
       <c r="G5" s="8" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -1519,7 +1526,7 @@
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -1552,7 +1559,7 @@
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -1576,16 +1583,16 @@
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
       <c r="M7" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="N7" s="6" t="s">
         <v>282</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>283</v>
       </c>
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -1622,7 +1629,7 @@
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
@@ -1640,7 +1647,7 @@
         <v>32</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H9" s="8" t="s">
         <v>42</v>
@@ -1663,7 +1670,7 @@
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -1681,7 +1688,7 @@
         <v>33</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>37</v>
@@ -1698,7 +1705,7 @@
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
@@ -1716,7 +1723,7 @@
         <v>34</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>36</v>
@@ -1792,7 +1799,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H3"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1817,7 +1824,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>184</v>
@@ -1826,7 +1833,7 @@
         <v>54</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1834,20 +1841,20 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="F2" s="11">
         <v>44114</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H2" s="20"/>
     </row>
@@ -1856,16 +1863,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>265</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>266</v>
       </c>
       <c r="F3" s="11">
         <v>41913</v>
@@ -2015,7 +2022,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>178</v>
@@ -3026,16 +3033,16 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>234</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>247</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>144</v>
@@ -3049,16 +3056,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>234</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D2" t="s">
         <v>235</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>248</v>
-      </c>
-      <c r="D2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>249</v>
       </c>
       <c r="F2">
         <v>2017</v>
@@ -3072,19 +3079,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>236</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>253</v>
+      </c>
+      <c r="D3" t="s">
+        <v>235</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F3" t="s">
         <v>237</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>254</v>
-      </c>
-      <c r="D3" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" t="s">
-        <v>238</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -3095,19 +3102,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>238</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" t="s">
         <v>239</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>255</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="F4" t="s">
         <v>240</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="F4" t="s">
-        <v>241</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -3118,13 +3125,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>251</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>252</v>
       </c>
       <c r="F5">
         <v>2014</v>
@@ -3138,19 +3145,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>243</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>255</v>
+      </c>
+      <c r="D6" t="s">
+        <v>242</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>252</v>
+      </c>
+      <c r="F6" t="s">
         <v>244</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>256</v>
-      </c>
-      <c r="D6" t="s">
-        <v>243</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>253</v>
-      </c>
-      <c r="F6" t="s">
-        <v>245</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
@@ -3257,7 +3264,7 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C4" s="17" t="s">
         <v>198</v>
@@ -3415,10 +3422,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B60E14-B30E-4C19-8408-1A7E40875D6F}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3438,13 +3445,13 @@
         <v>206</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>144</v>
@@ -3455,13 +3462,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D2" t="s">
-        <v>216</v>
-      </c>
-      <c r="E2" t="s">
-        <v>218</v>
+        <v>285</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -3469,16 +3476,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>207</v>
-      </c>
-      <c r="C3" t="s">
-        <v>229</v>
+        <v>212</v>
       </c>
       <c r="D3" t="s">
-        <v>219</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>220</v>
+        <v>215</v>
+      </c>
+      <c r="E3" t="s">
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -3486,19 +3490,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>209</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>230</v>
+        <v>207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>228</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>183</v>
-      </c>
-      <c r="F4" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3506,13 +3507,19 @@
         <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>211</v>
+        <v>284</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>229</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>208</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>92</v>
+        <v>183</v>
+      </c>
+      <c r="F5" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3520,15 +3527,12 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>231</v>
+        <v>210</v>
       </c>
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="17" t="s">
         <v>92</v>
       </c>
     </row>
@@ -3537,27 +3541,30 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D7" t="s">
-        <v>221</v>
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>212</v>
+        <v>214</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>231</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3565,13 +3572,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D9" t="s">
-        <v>222</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>226</v>
+        <v>27</v>
+      </c>
+      <c r="E9" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3579,12 +3586,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D10" t="s">
-        <v>223</v>
-      </c>
-      <c r="E10" t="s">
+        <v>221</v>
+      </c>
+      <c r="E10" s="17" t="s">
         <v>225</v>
       </c>
     </row>
@@ -3596,10 +3603,10 @@
         <v>211</v>
       </c>
       <c r="D11" t="s">
+        <v>222</v>
+      </c>
+      <c r="E11" t="s">
         <v>224</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -3607,24 +3614,38 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>210</v>
+      </c>
+      <c r="D12" t="s">
+        <v>223</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>205</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12" xr:uid="{2096F4DE-C26D-4837-A07C-FEF87FC35498}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13" xr:uid="{2096F4DE-C26D-4837-A07C-FEF87FC35498}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1" xr:uid="{8308E64D-8B27-4F37-BBCD-05D5F23A79A7}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{F26C4B98-93BB-4ECE-BFC6-870F5A782AC4}"/>
-    <hyperlink ref="E5" r:id="rId3" xr:uid="{DDB4BF0D-A1DA-4B48-BABA-7A2EF356AF39}"/>
-    <hyperlink ref="E9" r:id="rId4" xr:uid="{555B9FA3-1DC2-4D0A-BF79-58FC41E5D8F1}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{43C69D84-E7C0-4FF3-B7E4-5E5B5D13D4C9}"/>
-    <hyperlink ref="C4" r:id="rId6" xr:uid="{D524DD19-FE92-48C2-9CE4-26E53313F060}"/>
-    <hyperlink ref="C6" r:id="rId7" xr:uid="{318F41AF-661E-4D3B-A250-A8E31DF4E902}"/>
-    <hyperlink ref="C7" r:id="rId8" xr:uid="{CADEFD76-26A3-41C0-A993-C6014C205DE5}"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{8308E64D-8B27-4F37-BBCD-05D5F23A79A7}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{F26C4B98-93BB-4ECE-BFC6-870F5A782AC4}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{DDB4BF0D-A1DA-4B48-BABA-7A2EF356AF39}"/>
+    <hyperlink ref="E10" r:id="rId4" xr:uid="{555B9FA3-1DC2-4D0A-BF79-58FC41E5D8F1}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{43C69D84-E7C0-4FF3-B7E4-5E5B5D13D4C9}"/>
+    <hyperlink ref="C5" r:id="rId6" xr:uid="{D524DD19-FE92-48C2-9CE4-26E53313F060}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{318F41AF-661E-4D3B-A250-A8E31DF4E902}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{CADEFD76-26A3-41C0-A993-C6014C205DE5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6E6F50-764C-4A3A-8998-501B32903E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE18E091-7436-480B-8A23-374E5DD16666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="7" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="301">
   <si>
     <t>doi</t>
   </si>
@@ -106,9 +106,6 @@
     <t>User Interface Software and Technology (UIST) 2020</t>
   </si>
   <si>
-    <t>Transactions on Graphics (TOG) / SIGGRAPH 2022</t>
-  </si>
-  <si>
     <t>Computer Graphics Forum (CGF) 2024</t>
   </si>
   <si>
@@ -445,12 +442,6 @@
     <t>https://www.youtube.com/watch?v=F5o5gKcjsQI</t>
   </si>
   <si>
-    <t>https://arxiv.org/pdf/2501.15413</t>
-  </si>
-  <si>
-    <t>https://arxiv.org/pdf/2501.18951</t>
-  </si>
-  <si>
     <t>Human Factors in Computing Systems (CHI) 2025</t>
   </si>
   <si>
@@ -893,6 +884,57 @@
   </si>
   <si>
     <t>https://pg2025.nccu.edu.tw/</t>
+  </si>
+  <si>
+    <t>mokume/mokume.jpg</t>
+  </si>
+  <si>
+    <t>The Mokume Dataset and Inverse Texturing of Solid Wood</t>
+  </si>
+  <si>
+    <t>Maria Larsson, Hodaka Yamaguchi, Ehsan Pajouheshgar, I-Chao Shen, Kenji Tojo, Chia-Ming Chang, Lars Hansson, Olof Broman, Takashi Ijiri, Ariel Shamir, Wenzel Jakob, and Takeo Igarashi</t>
+  </si>
+  <si>
+    <t>mokume/preprint_paper.pdf</t>
+  </si>
+  <si>
+    <t>https://youtu.be/H6N-kYbTJOM</t>
+  </si>
+  <si>
+    <t>SIGGRAPH 2022</t>
+  </si>
+  <si>
+    <t>SIGGRAPH 2025</t>
+  </si>
+  <si>
+    <t>Untitled Space</t>
+  </si>
+  <si>
+    <t>https://www.instagram.com/untitled_space_tokyo/</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3730874</t>
+  </si>
+  <si>
+    <t>Computational Wood</t>
+  </si>
+  <si>
+    <t>Tokyo Art Beat</t>
+  </si>
+  <si>
+    <t>https://www.tokyoartbeat.com/en/events/-/Maria-Larsson-Computational-Wood/untitled-space/2025-04-19</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3706598.3714281</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3706598.3713331</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3706598.3714281</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3706598.3713331</t>
   </si>
 </sst>
 </file>
@@ -1311,16 +1353,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
-  <dimension ref="A1:P26"/>
+  <dimension ref="A1:P27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7265625" customWidth="1"/>
     <col min="2" max="2" width="4.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="40.08984375" bestFit="1" customWidth="1"/>
@@ -1373,45 +1415,47 @@
         <v>2</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="M1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="O1" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>269</v>
+        <v>284</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>131</v>
+        <v>285</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>139</v>
+        <v>290</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>132</v>
+        <v>286</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="16" t="s">
-        <v>136</v>
-      </c>
-      <c r="I2" s="16"/>
+        <v>288</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>293</v>
+      </c>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1419,137 +1463,142 @@
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
       <c r="P2" s="17" t="s">
-        <v>137</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G3" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="G3" s="16" t="s">
+        <v>300</v>
+      </c>
       <c r="H3" s="16" t="s">
         <v>135</v>
       </c>
-      <c r="I3" s="16"/>
+      <c r="I3" s="17" t="s">
+        <v>298</v>
+      </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="17" t="s">
-        <v>138</v>
-      </c>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>9</v>
-      </c>
       <c r="E4" s="6" t="s">
-        <v>27</v>
+        <v>136</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>114</v>
+        <v>128</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>299</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>118</v>
+        <v>297</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="O4" s="1"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="6"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="6"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H5" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I5" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>48</v>
+        <v>28</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>280</v>
       </c>
       <c r="H6" s="6"/>
-      <c r="I6" s="8" t="s">
-        <v>47</v>
-      </c>
+      <c r="I6" s="6"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
       <c r="L6" s="6"/>
@@ -1559,177 +1608,175 @@
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>49</v>
+        <v>138</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+      <c r="I7" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
-      <c r="M7" s="6" t="s">
-        <v>281</v>
-      </c>
-      <c r="N7" s="6" t="s">
-        <v>282</v>
-      </c>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>141</v>
+        <v>48</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="I8" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="J8" s="6" t="s">
-        <v>43</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
+      <c r="M8" s="6" t="s">
+        <v>278</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>279</v>
+      </c>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>23</v>
+        <v>289</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G9" s="6" t="s">
-        <v>280</v>
+        <v>45</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I9" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="L9" s="6" t="s">
-        <v>105</v>
-      </c>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
       <c r="M9" s="6"/>
       <c r="N9" s="6"/>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="I10" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J10" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
+      <c r="L10" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>36</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J11" s="6"/>
       <c r="K11" s="6"/>
@@ -1738,8 +1785,40 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="H12" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
       <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L13" s="6"/>
@@ -1747,7 +1826,9 @@
     <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L15" s="6"/>
+    </row>
     <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -1759,38 +1840,43 @@
     <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B28" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C12:C30" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C31" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
       <formula1>"Technical paper, Short technical paper, Poster, Ph.D. Thesis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C11" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
       <formula1>"Conference Paper, Journal Paper, Short paper, Poster, Ph.D. Thesis"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I11" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
-    <hyperlink ref="H11" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
-    <hyperlink ref="H10" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
-    <hyperlink ref="I10" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
-    <hyperlink ref="K9" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
-    <hyperlink ref="I9" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
-    <hyperlink ref="H9" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
-    <hyperlink ref="I8" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
-    <hyperlink ref="H8" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
-    <hyperlink ref="I6" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
-    <hyperlink ref="I4" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
-    <hyperlink ref="H4" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
-    <hyperlink ref="P3" r:id="rId13" xr:uid="{EB82A5BE-BD69-485F-ACF0-CAF4FBC88D49}"/>
-    <hyperlink ref="P2" r:id="rId14" xr:uid="{9EFC85AB-BEE3-4054-974A-17ED17E537CF}"/>
-    <hyperlink ref="H3" r:id="rId15" xr:uid="{D2124DA5-21CA-4C5C-90D9-FAE4DBCFE470}"/>
-    <hyperlink ref="H2" r:id="rId16" xr:uid="{DC553953-6A36-4D7D-B907-7E8C7FDD75F8}"/>
+    <hyperlink ref="I12" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
+    <hyperlink ref="H12" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
+    <hyperlink ref="H11" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
+    <hyperlink ref="I11" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
+    <hyperlink ref="K10" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
+    <hyperlink ref="I10" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
+    <hyperlink ref="H10" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
+    <hyperlink ref="I9" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
+    <hyperlink ref="H9" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
+    <hyperlink ref="I7" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
+    <hyperlink ref="I5" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
+    <hyperlink ref="H5" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
+    <hyperlink ref="H4" r:id="rId13" xr:uid="{D2124DA5-21CA-4C5C-90D9-FAE4DBCFE470}"/>
+    <hyperlink ref="H3" r:id="rId14" xr:uid="{DC553953-6A36-4D7D-B907-7E8C7FDD75F8}"/>
+    <hyperlink ref="P2" r:id="rId15" display="https://arxiv.org/pdf/2501.15413" xr:uid="{3040D740-80ED-41F1-A1A1-2F6226E3F44E}"/>
+    <hyperlink ref="H2" r:id="rId16" xr:uid="{DD7DACAE-B55C-4373-B7AC-6C3EDFE94B3A}"/>
+    <hyperlink ref="I2" r:id="rId17" xr:uid="{27366247-242C-4CD2-A49A-93C9ABFF0158}"/>
+    <hyperlink ref="I3" r:id="rId18" xr:uid="{A9177797-A40B-463E-8432-F935D521C352}"/>
+    <hyperlink ref="G4" r:id="rId19" xr:uid="{9D746FE8-BC83-456F-AF30-7A4F47F90359}"/>
+    <hyperlink ref="G3" r:id="rId20" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId17"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>
 
@@ -1824,16 +1910,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1841,20 +1927,20 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="F2" s="11">
         <v>44114</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H2" s="20"/>
     </row>
@@ -1863,16 +1949,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F3" s="11">
         <v>41913</v>
@@ -1982,19 +2068,19 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2002,19 +2088,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2022,19 +2108,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D3" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2042,19 +2128,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D4" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>179</v>
-      </c>
-      <c r="D4" t="s">
-        <v>155</v>
-      </c>
       <c r="E4" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2062,13 +2148,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F5" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2076,10 +2162,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="F6">
         <v>2009</v>
@@ -2113,9 +2199,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
   <dimension ref="A1:J32"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H2" sqref="H2:H3"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2136,22 +2222,22 @@
         <v>17</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G1" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>53</v>
-      </c>
-      <c r="H1" s="5" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2159,22 +2245,22 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="D2" s="7" t="s">
-        <v>134</v>
-      </c>
       <c r="E2" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="H2" s="11">
         <v>45698</v>
@@ -2182,21 +2268,21 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F3" s="14"/>
       <c r="G3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H3" s="11">
         <v>45630</v>
@@ -2204,21 +2290,21 @@
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D4" s="7"/>
       <c r="E4" s="10" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H4" s="11">
         <v>45630</v>
@@ -2226,19 +2312,19 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="10" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H5" s="11">
         <v>45622</v>
@@ -2248,23 +2334,23 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D6" s="7" t="s">
+      <c r="E6" s="10" t="s">
         <v>116</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>117</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H6" s="11">
         <v>45597</v>
@@ -2277,20 +2363,20 @@
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="H7" s="11">
         <v>45547</v>
@@ -2303,18 +2389,18 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>63</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>64</v>
       </c>
       <c r="H8" s="11">
         <v>45481</v>
@@ -2327,18 +2413,18 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G9" s="10" t="s">
         <v>65</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>66</v>
       </c>
       <c r="H9" s="11">
         <v>45364</v>
@@ -2351,22 +2437,22 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>67</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>68</v>
       </c>
       <c r="H10" s="11">
         <v>45334</v>
@@ -2379,22 +2465,22 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C11" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="E11" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="F11" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="E11" s="10" t="s">
+      <c r="G11" s="10" t="s">
         <v>69</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" s="10" t="s">
-        <v>70</v>
       </c>
       <c r="H11" s="11">
         <v>45177</v>
@@ -2407,20 +2493,20 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="H12" s="11">
         <v>44841</v>
@@ -2433,18 +2519,18 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H13" s="11">
         <v>44768</v>
@@ -2457,18 +2543,18 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H14" s="11">
         <v>44638</v>
@@ -2481,18 +2567,18 @@
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G15" s="10" t="s">
         <v>75</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>76</v>
       </c>
       <c r="H15" s="11">
         <v>44539</v>
@@ -2505,23 +2591,23 @@
         <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="D16" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="E16" s="10" t="s">
         <v>78</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>99</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>79</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H16" s="11" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
@@ -2531,20 +2617,20 @@
         <v>8</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="H17" s="11">
         <v>44065</v>
@@ -2759,10 +2845,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A82A9A4-A682-47E5-867E-575A6C2EBAD3}">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2782,25 +2868,25 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -2808,20 +2894,20 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>109</v>
+        <v>294</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>156</v>
+        <v>291</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>171</v>
+        <v>292</v>
       </c>
       <c r="F2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G2">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="H2" s="6" t="s">
         <v>8</v>
@@ -2831,20 +2917,21 @@
       <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
         <v>108</v>
       </c>
+      <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>110</v>
+        <v>153</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>112</v>
+        <v>168</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
-      </c>
-      <c r="G3" t="s">
-        <v>111</v>
+        <v>58</v>
+      </c>
+      <c r="G3">
+        <v>2024</v>
       </c>
       <c r="H3" s="6" t="s">
         <v>8</v>
@@ -2855,19 +2942,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>172</v>
+        <v>111</v>
       </c>
       <c r="F4" t="s">
-        <v>158</v>
-      </c>
-      <c r="G4">
-        <v>2020</v>
+        <v>58</v>
+      </c>
+      <c r="G4" t="s">
+        <v>110</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>8</v>
@@ -2878,19 +2965,22 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>107</v>
+      </c>
+      <c r="D5" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>169</v>
       </c>
-      <c r="D5" t="s">
-        <v>166</v>
-      </c>
       <c r="F5" t="s">
-        <v>59</v>
-      </c>
-      <c r="G5" t="s">
-        <v>167</v>
+        <v>155</v>
+      </c>
+      <c r="G5">
+        <v>2020</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
@@ -2898,22 +2988,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>166</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" t="s">
+        <v>58</v>
+      </c>
+      <c r="G6" t="s">
         <v>164</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="D6" t="s">
-        <v>113</v>
-      </c>
-      <c r="F6" t="s">
-        <v>165</v>
-      </c>
-      <c r="G6">
-        <v>2018</v>
-      </c>
       <c r="H6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
@@ -2921,16 +3008,19 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>160</v>
+        <v>161</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>171</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="G7">
-        <v>2014</v>
+        <v>2018</v>
       </c>
       <c r="H7" s="6" t="s">
         <v>8</v>
@@ -2941,30 +3031,40 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F8" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8">
+        <v>2014</v>
+      </c>
+      <c r="H8" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
         <v>159</v>
       </c>
-      <c r="G8">
+      <c r="D9" t="s">
+        <v>158</v>
+      </c>
+      <c r="F9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G9">
         <v>2012</v>
       </c>
-      <c r="H8" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="9"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="15"/>
+      <c r="H9" s="6" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="9"/>
@@ -2980,7 +3080,7 @@
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
       <c r="C11" s="10"/>
-      <c r="D11" s="14"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
       <c r="G11" s="10"/>
@@ -2990,23 +3090,34 @@
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
       <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="D12" s="14"/>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="15"/>
     </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="9"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="15"/>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12 H2:H8" xr:uid="{A843C39B-3DD2-4971-847A-1BE926B6AD29}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13 H2:H9" xr:uid="{A843C39B-3DD2-4971-847A-1BE926B6AD29}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{9DB7FA29-8915-4082-8E4B-B7C0EAC9CED6}"/>
-    <hyperlink ref="E3" r:id="rId2" xr:uid="{7B488004-3E29-4ED4-BE5D-C35487B732E5}"/>
-    <hyperlink ref="E4" r:id="rId3" xr:uid="{0C76A863-4232-422A-BA9A-673A1BF4250B}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{682BBE4E-4917-4120-A76B-8C331DA066A4}"/>
+    <hyperlink ref="E3" r:id="rId1" xr:uid="{9DB7FA29-8915-4082-8E4B-B7C0EAC9CED6}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{7B488004-3E29-4ED4-BE5D-C35487B732E5}"/>
+    <hyperlink ref="E5" r:id="rId3" xr:uid="{0C76A863-4232-422A-BA9A-673A1BF4250B}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{682BBE4E-4917-4120-A76B-8C331DA066A4}"/>
+    <hyperlink ref="E2" r:id="rId5" xr:uid="{51201E7C-247B-4C2D-A774-B15F8952CB56}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3033,22 +3144,22 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3056,16 +3167,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D2" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F2">
         <v>2017</v>
@@ -3079,19 +3190,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D3" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="F3" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -3102,19 +3213,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D4" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F4" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -3125,13 +3236,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D5" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F5">
         <v>2014</v>
@@ -3145,19 +3256,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="D6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F6" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
@@ -3192,10 +3303,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BF40C-790B-4CF4-A05F-7E113109C631}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3213,16 +3324,16 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3230,13 +3341,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>295</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>195</v>
+        <v>296</v>
       </c>
       <c r="D2" s="19">
-        <v>45638</v>
+        <v>45766</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -3247,13 +3358,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="D3" s="19">
-        <v>45292</v>
+        <v>45638</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -3264,13 +3375,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D4" s="19">
-        <v>45153</v>
+        <v>45292</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
@@ -3281,13 +3392,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D5" s="19">
-        <v>44531</v>
+        <v>45153</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
@@ -3298,13 +3409,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D6" s="19">
-        <v>44299</v>
+        <v>44531</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>8</v>
@@ -3315,13 +3426,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="D7" s="19">
-        <v>44294</v>
+        <v>44299</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
@@ -3332,16 +3443,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="D8" s="19">
-        <v>44146</v>
+        <v>44294</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -3352,13 +3463,13 @@
         <v>185</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="D9" s="19">
-        <v>44134</v>
+        <v>44146</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3366,13 +3477,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="D10" s="19">
-        <v>44127</v>
+        <v>44134</v>
       </c>
       <c r="E10" s="6" t="s">
         <v>8</v>
@@ -3383,38 +3494,56 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D11" s="19">
+        <v>44127</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>184</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>201</v>
+      </c>
+      <c r="D12" s="19">
         <v>44125</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E12" s="6"/>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E13" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A11 E2:E12" xr:uid="{E6575E9B-9781-4346-B469-C150AD54AE96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12 E2:E13" xr:uid="{E6575E9B-9781-4346-B469-C150AD54AE96}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{1D248C60-E5BB-4815-A484-B03917776CE8}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{3E5BB258-5A8A-404B-8D93-0E965C5160D5}"/>
-    <hyperlink ref="C5" r:id="rId3" xr:uid="{962D3F5E-182E-4C7C-997A-2FC746B12452}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{C36C5E6A-F35F-483A-B5E2-5390BEF335C2}"/>
-    <hyperlink ref="C6" r:id="rId5" xr:uid="{6ACD5BC2-86CA-4B13-9D47-42076AC1713D}"/>
-    <hyperlink ref="C7" r:id="rId6" xr:uid="{1CA4ECF3-B7A0-4F1E-AAD0-B231EEC12654}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{89B66F2E-C2CD-41E1-8703-A126267146BE}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{E2334F0E-306D-4AFE-82BC-98E716F0EB59}"/>
-    <hyperlink ref="C10" r:id="rId9" xr:uid="{BAA0910A-286B-40D7-B9F9-CC1BE4951156}"/>
-    <hyperlink ref="C11" r:id="rId10" xr:uid="{567D1D1C-6E4E-4BFB-80D4-CAAC4CAD160C}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{1D248C60-E5BB-4815-A484-B03917776CE8}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{3E5BB258-5A8A-404B-8D93-0E965C5160D5}"/>
+    <hyperlink ref="C6" r:id="rId3" xr:uid="{962D3F5E-182E-4C7C-997A-2FC746B12452}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{C36C5E6A-F35F-483A-B5E2-5390BEF335C2}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{6ACD5BC2-86CA-4B13-9D47-42076AC1713D}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{1CA4ECF3-B7A0-4F1E-AAD0-B231EEC12654}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{89B66F2E-C2CD-41E1-8703-A126267146BE}"/>
+    <hyperlink ref="C10" r:id="rId8" xr:uid="{E2334F0E-306D-4AFE-82BC-98E716F0EB59}"/>
+    <hyperlink ref="C11" r:id="rId9" xr:uid="{BAA0910A-286B-40D7-B9F9-CC1BE4951156}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{567D1D1C-6E4E-4BFB-80D4-CAAC4CAD160C}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{F3413919-B09C-4657-B3B0-7F1540CC9B1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3424,8 +3553,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B60E14-B30E-4C19-8408-1A7E40875D6F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3442,19 +3571,19 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -3462,13 +3591,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -3476,13 +3605,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D3" t="s">
         <v>212</v>
       </c>
-      <c r="D3" t="s">
-        <v>215</v>
-      </c>
       <c r="E3" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -3490,81 +3619,81 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D4" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D5" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F5" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D8" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3572,13 +3701,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3586,13 +3715,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -3600,13 +3729,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E11" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -3614,13 +3743,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
+        <v>220</v>
+      </c>
+      <c r="E12" s="17" t="s">
         <v>223</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -3628,7 +3757,7 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE18E091-7436-480B-8A23-374E5DD16666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E083B04-152D-46DA-B511-E81E544C8BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="302">
   <si>
     <t>doi</t>
   </si>
@@ -935,6 +935,9 @@
   </si>
   <si>
     <t>https://dl.acm.org/doi/pdf/10.1145/3706598.3713331</t>
+  </si>
+  <si>
+    <t>https://mokumeproject.github.io/</t>
   </si>
 </sst>
 </file>
@@ -1355,9 +1358,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1456,7 +1459,9 @@
       <c r="I2" s="16" t="s">
         <v>293</v>
       </c>
-      <c r="J2" s="2"/>
+      <c r="J2" s="16" t="s">
+        <v>301</v>
+      </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1874,9 +1879,10 @@
     <hyperlink ref="I3" r:id="rId18" xr:uid="{A9177797-A40B-463E-8432-F935D521C352}"/>
     <hyperlink ref="G4" r:id="rId19" xr:uid="{9D746FE8-BC83-456F-AF30-7A4F47F90359}"/>
     <hyperlink ref="G3" r:id="rId20" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
+    <hyperlink ref="J2" r:id="rId21" xr:uid="{37916EEF-CB37-432C-9DB0-852ECB1981C4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId21"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
 </worksheet>
 </file>
 
@@ -3305,7 +3311,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BF40C-790B-4CF4-A05F-7E113109C631}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E083B04-152D-46DA-B511-E81E544C8BAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C06E596-A0F2-4B53-84D8-05960EEACF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="304">
   <si>
     <t>doi</t>
   </si>
@@ -938,6 +938,12 @@
   </si>
   <si>
     <t>https://mokumeproject.github.io/</t>
+  </si>
+  <si>
+    <t>https://www.u-tokyo.ac.jp/focus/en/press/z0508_00401.html</t>
+  </si>
+  <si>
+    <t>UToyko Press Release</t>
   </si>
 </sst>
 </file>
@@ -1358,7 +1364,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
     </sheetView>
@@ -3309,10 +3315,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BF40C-790B-4CF4-A05F-7E113109C631}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3347,13 +3353,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>295</v>
+        <v>303</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>296</v>
+        <v>302</v>
       </c>
       <c r="D2" s="19">
-        <v>45766</v>
+        <v>45773</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -3364,13 +3370,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>186</v>
+        <v>295</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>192</v>
+        <v>296</v>
       </c>
       <c r="D3" s="19">
-        <v>45638</v>
+        <v>45766</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -3381,13 +3387,13 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D4" s="19">
-        <v>45292</v>
+        <v>45638</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
@@ -3398,13 +3404,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D5" s="19">
-        <v>45153</v>
+        <v>45292</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
@@ -3415,13 +3421,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>264</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D6" s="19">
-        <v>44531</v>
+        <v>45153</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>8</v>
@@ -3432,13 +3438,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D7" s="19">
-        <v>44299</v>
+        <v>44531</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
@@ -3449,13 +3455,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D8" s="19">
-        <v>44294</v>
+        <v>44299</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>8</v>
@@ -3466,16 +3472,16 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D9" s="19">
-        <v>44146</v>
+        <v>44294</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -3483,16 +3489,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D10" s="19">
-        <v>44134</v>
+        <v>44146</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3500,13 +3506,13 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D11" s="19">
-        <v>44127</v>
+        <v>44134</v>
       </c>
       <c r="E11" s="6" t="s">
         <v>8</v>
@@ -3517,39 +3523,56 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
+        <v>183</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" s="19">
+        <v>44127</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" t="s">
         <v>184</v>
       </c>
-      <c r="C12" s="17" t="s">
+      <c r="C13" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D12" s="19">
+      <c r="D13" s="19">
         <v>44125</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E13" s="6"/>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E14" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A12 E2:E13" xr:uid="{E6575E9B-9781-4346-B469-C150AD54AE96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13 E2:E14" xr:uid="{E6575E9B-9781-4346-B469-C150AD54AE96}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{1D248C60-E5BB-4815-A484-B03917776CE8}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{3E5BB258-5A8A-404B-8D93-0E965C5160D5}"/>
-    <hyperlink ref="C6" r:id="rId3" xr:uid="{962D3F5E-182E-4C7C-997A-2FC746B12452}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{C36C5E6A-F35F-483A-B5E2-5390BEF335C2}"/>
-    <hyperlink ref="C7" r:id="rId5" xr:uid="{6ACD5BC2-86CA-4B13-9D47-42076AC1713D}"/>
-    <hyperlink ref="C8" r:id="rId6" xr:uid="{1CA4ECF3-B7A0-4F1E-AAD0-B231EEC12654}"/>
-    <hyperlink ref="C9" r:id="rId7" xr:uid="{89B66F2E-C2CD-41E1-8703-A126267146BE}"/>
-    <hyperlink ref="C10" r:id="rId8" xr:uid="{E2334F0E-306D-4AFE-82BC-98E716F0EB59}"/>
-    <hyperlink ref="C11" r:id="rId9" xr:uid="{BAA0910A-286B-40D7-B9F9-CC1BE4951156}"/>
-    <hyperlink ref="C12" r:id="rId10" xr:uid="{567D1D1C-6E4E-4BFB-80D4-CAAC4CAD160C}"/>
-    <hyperlink ref="C2" r:id="rId11" xr:uid="{F3413919-B09C-4657-B3B0-7F1540CC9B1E}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{1D248C60-E5BB-4815-A484-B03917776CE8}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{3E5BB258-5A8A-404B-8D93-0E965C5160D5}"/>
+    <hyperlink ref="C7" r:id="rId3" xr:uid="{962D3F5E-182E-4C7C-997A-2FC746B12452}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{C36C5E6A-F35F-483A-B5E2-5390BEF335C2}"/>
+    <hyperlink ref="C8" r:id="rId5" xr:uid="{6ACD5BC2-86CA-4B13-9D47-42076AC1713D}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{1CA4ECF3-B7A0-4F1E-AAD0-B231EEC12654}"/>
+    <hyperlink ref="C10" r:id="rId7" xr:uid="{89B66F2E-C2CD-41E1-8703-A126267146BE}"/>
+    <hyperlink ref="C11" r:id="rId8" xr:uid="{E2334F0E-306D-4AFE-82BC-98E716F0EB59}"/>
+    <hyperlink ref="C12" r:id="rId9" xr:uid="{BAA0910A-286B-40D7-B9F9-CC1BE4951156}"/>
+    <hyperlink ref="C13" r:id="rId10" xr:uid="{567D1D1C-6E4E-4BFB-80D4-CAAC4CAD160C}"/>
+    <hyperlink ref="C3" r:id="rId11" xr:uid="{F3413919-B09C-4657-B3B0-7F1540CC9B1E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C06E596-A0F2-4B53-84D8-05960EEACF53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA53B17-BB11-48C6-9861-C75E6F599ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" activeTab="6" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="7" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="467" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="307">
   <si>
     <t>doi</t>
   </si>
@@ -679,9 +679,6 @@
     <t>https://cadgraphics2025.sdtbu.edu.cn/</t>
   </si>
   <si>
-    <t>CAADIA 2025</t>
-  </si>
-  <si>
     <t>https://www.caadria2025.org/</t>
   </si>
   <si>
@@ -944,6 +941,18 @@
   </si>
   <si>
     <t>UToyko Press Release</t>
+  </si>
+  <si>
+    <t>CAADRIA 2025</t>
+  </si>
+  <si>
+    <t>https://open.spotify.com/episode/4b2xY9mS3nPycgrQI5QrPx?go=1&amp;sp_cid=6bb53fabb16f912f2382fffc74fb3304&amp;utm_source=embed_player_p&amp;utm_medium=desktop&amp;si=cxwZzNXcTvupsglQyWR24g&amp;nd=1&amp;dlsi=0e6af4578771476a</t>
+  </si>
+  <si>
+    <t>Gomi-no-kakou PodCast (JP)</t>
+  </si>
+  <si>
+    <t>Post Graduate Student Consortium Panelist</t>
   </si>
 </sst>
 </file>
@@ -1441,7 +1450,7 @@
     </row>
     <row r="2" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -1450,23 +1459,23 @@
         <v>138</v>
       </c>
       <c r="D2" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>289</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>285</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>290</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>286</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1474,12 +1483,12 @@
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
       <c r="P2" s="17" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -1497,13 +1506,13 @@
         <v>131</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1515,7 +1524,7 @@
     </row>
     <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1533,13 +1542,13 @@
         <v>128</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>134</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1551,7 +1560,7 @@
     </row>
     <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
@@ -1588,7 +1597,7 @@
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -1606,7 +1615,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -1619,7 +1628,7 @@
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -1652,7 +1661,7 @@
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -1676,16 +1685,16 @@
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
       <c r="M8" s="6" t="s">
+        <v>277</v>
+      </c>
+      <c r="N8" s="6" t="s">
         <v>278</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>279</v>
       </c>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
@@ -1697,7 +1706,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>30</v>
@@ -1722,7 +1731,7 @@
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
@@ -1740,7 +1749,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H10" s="8" t="s">
         <v>41</v>
@@ -1763,7 +1772,7 @@
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
@@ -1781,7 +1790,7 @@
         <v>32</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H11" s="8" t="s">
         <v>36</v>
@@ -1798,7 +1807,7 @@
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>8</v>
@@ -1816,7 +1825,7 @@
         <v>33</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H12" s="8" t="s">
         <v>35</v>
@@ -1922,7 +1931,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>181</v>
@@ -1931,7 +1940,7 @@
         <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1939,20 +1948,20 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="F2" s="11">
         <v>44114</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H2" s="20"/>
     </row>
@@ -1961,16 +1970,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>261</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>262</v>
       </c>
       <c r="F3" s="11">
         <v>41913</v>
@@ -2120,7 +2129,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>175</v>
@@ -2906,14 +2915,14 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
+        <v>290</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>292</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -3156,16 +3165,16 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>229</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>242</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>230</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>243</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>141</v>
@@ -3179,16 +3188,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="D2" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="D2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="F2">
         <v>2017</v>
@@ -3202,19 +3211,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>249</v>
+      </c>
+      <c r="D3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>244</v>
+      </c>
+      <c r="F3" t="s">
         <v>233</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="F3" t="s">
-        <v>234</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -3225,19 +3234,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>234</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>250</v>
+      </c>
+      <c r="D4" t="s">
         <v>235</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>251</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F4" t="s">
         <v>236</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F4" t="s">
-        <v>237</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -3248,13 +3257,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D5" t="s">
+        <v>246</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>247</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>248</v>
       </c>
       <c r="F5">
         <v>2014</v>
@@ -3268,19 +3277,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>239</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>251</v>
+      </c>
+      <c r="D6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="F6" t="s">
         <v>240</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>252</v>
-      </c>
-      <c r="D6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="F6" t="s">
-        <v>241</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
@@ -3315,16 +3324,16 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BF40C-790B-4CF4-A05F-7E113109C631}">
-  <dimension ref="A1:E14"/>
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.36328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" customWidth="1"/>
+    <col min="2" max="2" width="44.90625" customWidth="1"/>
     <col min="3" max="3" width="22.453125" customWidth="1"/>
     <col min="4" max="4" width="16" customWidth="1"/>
     <col min="5" max="5" width="18.54296875" bestFit="1" customWidth="1"/>
@@ -3353,13 +3362,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="D2" s="19">
-        <v>45773</v>
+        <v>45820</v>
       </c>
       <c r="E2" s="6" t="s">
         <v>8</v>
@@ -3370,13 +3379,13 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>295</v>
+        <v>302</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="D3" s="19">
-        <v>45766</v>
+        <v>45773</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>8</v>
@@ -3384,16 +3393,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>186</v>
+        <v>294</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>192</v>
+        <v>295</v>
       </c>
       <c r="D4" s="19">
-        <v>45638</v>
+        <v>45766</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>8</v>
@@ -3404,13 +3413,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D5" s="19">
-        <v>45292</v>
+        <v>45638</v>
       </c>
       <c r="E5" s="6" t="s">
         <v>8</v>
@@ -3421,13 +3430,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>264</v>
+        <v>187</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D6" s="19">
-        <v>45153</v>
+        <v>45292</v>
       </c>
       <c r="E6" s="6" t="s">
         <v>8</v>
@@ -3438,13 +3447,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>188</v>
+        <v>263</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D7" s="19">
-        <v>44531</v>
+        <v>45153</v>
       </c>
       <c r="E7" s="6" t="s">
         <v>8</v>
@@ -3455,13 +3464,13 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D8" s="19">
-        <v>44299</v>
+        <v>44531</v>
       </c>
       <c r="E8" s="6" t="s">
         <v>8</v>
@@ -3472,13 +3481,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D9" s="19">
-        <v>44294</v>
+        <v>44299</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>8</v>
@@ -3489,16 +3498,16 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D10" s="19">
-        <v>44146</v>
+        <v>44294</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -3506,16 +3515,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="19">
-        <v>44134</v>
+        <v>44146</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
@@ -3523,13 +3532,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D12" s="19">
-        <v>44127</v>
+        <v>44134</v>
       </c>
       <c r="E12" s="6" t="s">
         <v>8</v>
@@ -3540,39 +3549,57 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>183</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>200</v>
+      </c>
+      <c r="D13" s="19">
+        <v>44127</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
         <v>184</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C14" s="17" t="s">
         <v>201</v>
       </c>
-      <c r="D13" s="19">
+      <c r="D14" s="19">
         <v>44125</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="E14" s="6"/>
+      <c r="E14" s="6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E15" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13 E2:E14" xr:uid="{E6575E9B-9781-4346-B469-C150AD54AE96}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A14 E2:E15" xr:uid="{E6575E9B-9781-4346-B469-C150AD54AE96}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C4" r:id="rId1" xr:uid="{1D248C60-E5BB-4815-A484-B03917776CE8}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{3E5BB258-5A8A-404B-8D93-0E965C5160D5}"/>
-    <hyperlink ref="C7" r:id="rId3" xr:uid="{962D3F5E-182E-4C7C-997A-2FC746B12452}"/>
-    <hyperlink ref="C6" r:id="rId4" xr:uid="{C36C5E6A-F35F-483A-B5E2-5390BEF335C2}"/>
-    <hyperlink ref="C8" r:id="rId5" xr:uid="{6ACD5BC2-86CA-4B13-9D47-42076AC1713D}"/>
-    <hyperlink ref="C9" r:id="rId6" xr:uid="{1CA4ECF3-B7A0-4F1E-AAD0-B231EEC12654}"/>
-    <hyperlink ref="C10" r:id="rId7" xr:uid="{89B66F2E-C2CD-41E1-8703-A126267146BE}"/>
-    <hyperlink ref="C11" r:id="rId8" xr:uid="{E2334F0E-306D-4AFE-82BC-98E716F0EB59}"/>
-    <hyperlink ref="C12" r:id="rId9" xr:uid="{BAA0910A-286B-40D7-B9F9-CC1BE4951156}"/>
-    <hyperlink ref="C13" r:id="rId10" xr:uid="{567D1D1C-6E4E-4BFB-80D4-CAAC4CAD160C}"/>
-    <hyperlink ref="C3" r:id="rId11" xr:uid="{F3413919-B09C-4657-B3B0-7F1540CC9B1E}"/>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{1D248C60-E5BB-4815-A484-B03917776CE8}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{3E5BB258-5A8A-404B-8D93-0E965C5160D5}"/>
+    <hyperlink ref="C8" r:id="rId3" xr:uid="{962D3F5E-182E-4C7C-997A-2FC746B12452}"/>
+    <hyperlink ref="C7" r:id="rId4" xr:uid="{C36C5E6A-F35F-483A-B5E2-5390BEF335C2}"/>
+    <hyperlink ref="C9" r:id="rId5" xr:uid="{6ACD5BC2-86CA-4B13-9D47-42076AC1713D}"/>
+    <hyperlink ref="C10" r:id="rId6" xr:uid="{1CA4ECF3-B7A0-4F1E-AAD0-B231EEC12654}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{89B66F2E-C2CD-41E1-8703-A126267146BE}"/>
+    <hyperlink ref="C12" r:id="rId8" xr:uid="{E2334F0E-306D-4AFE-82BC-98E716F0EB59}"/>
+    <hyperlink ref="C13" r:id="rId9" xr:uid="{BAA0910A-286B-40D7-B9F9-CC1BE4951156}"/>
+    <hyperlink ref="C14" r:id="rId10" xr:uid="{567D1D1C-6E4E-4BFB-80D4-CAAC4CAD160C}"/>
+    <hyperlink ref="C4" r:id="rId11" xr:uid="{F3413919-B09C-4657-B3B0-7F1540CC9B1E}"/>
+    <hyperlink ref="C2" r:id="rId12" xr:uid="{39827512-9763-4B25-BF36-85458FA2134D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -3580,10 +3607,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B60E14-B30E-4C19-8408-1A7E40875D6F}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3603,7 +3630,7 @@
         <v>203</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>51</v>
@@ -3623,10 +3650,10 @@
         <v>208</v>
       </c>
       <c r="D2" t="s">
+        <v>281</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>282</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -3648,36 +3675,30 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C4" t="s">
-        <v>225</v>
+        <v>306</v>
       </c>
       <c r="D4" t="s">
+        <v>303</v>
+      </c>
+      <c r="E4" s="17" t="s">
         <v>215</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>226</v>
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>205</v>
+        <v>303</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F5" t="s">
-        <v>206</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3685,13 +3706,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>280</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>205</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>91</v>
+        <v>180</v>
+      </c>
+      <c r="F6" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3699,15 +3726,12 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>210</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
       <c r="D7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="17" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3716,13 +3740,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D8" t="s">
-        <v>217</v>
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3730,13 +3757,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>208</v>
+        <v>211</v>
+      </c>
+      <c r="C9" s="17" t="s">
+        <v>227</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" t="s">
-        <v>91</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3747,10 +3774,10 @@
         <v>208</v>
       </c>
       <c r="D10" t="s">
-        <v>218</v>
-      </c>
-      <c r="E10" s="17" t="s">
-        <v>222</v>
+        <v>26</v>
+      </c>
+      <c r="E10" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.35">
@@ -3761,9 +3788,9 @@
         <v>208</v>
       </c>
       <c r="D11" t="s">
-        <v>219</v>
-      </c>
-      <c r="E11" t="s">
+        <v>217</v>
+      </c>
+      <c r="E11" s="17" t="s">
         <v>221</v>
       </c>
     </row>
@@ -3772,13 +3799,13 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
         <v>220</v>
-      </c>
-      <c r="E12" s="17" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -3786,24 +3813,39 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
+        <v>207</v>
+      </c>
+      <c r="D13" t="s">
+        <v>219</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A13" xr:uid="{2096F4DE-C26D-4837-A07C-FEF87FC35498}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3:A14" xr:uid="{2096F4DE-C26D-4837-A07C-FEF87FC35498}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{8308E64D-8B27-4F37-BBCD-05D5F23A79A7}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{F26C4B98-93BB-4ECE-BFC6-870F5A782AC4}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{DDB4BF0D-A1DA-4B48-BABA-7A2EF356AF39}"/>
-    <hyperlink ref="E10" r:id="rId4" xr:uid="{555B9FA3-1DC2-4D0A-BF79-58FC41E5D8F1}"/>
-    <hyperlink ref="E12" r:id="rId5" xr:uid="{43C69D84-E7C0-4FF3-B7E4-5E5B5D13D4C9}"/>
-    <hyperlink ref="C5" r:id="rId6" xr:uid="{D524DD19-FE92-48C2-9CE4-26E53313F060}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{318F41AF-661E-4D3B-A250-A8E31DF4E902}"/>
-    <hyperlink ref="C8" r:id="rId8" xr:uid="{CADEFD76-26A3-41C0-A993-C6014C205DE5}"/>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{8308E64D-8B27-4F37-BBCD-05D5F23A79A7}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{F26C4B98-93BB-4ECE-BFC6-870F5A782AC4}"/>
+    <hyperlink ref="E7" r:id="rId3" xr:uid="{DDB4BF0D-A1DA-4B48-BABA-7A2EF356AF39}"/>
+    <hyperlink ref="E11" r:id="rId4" xr:uid="{555B9FA3-1DC2-4D0A-BF79-58FC41E5D8F1}"/>
+    <hyperlink ref="E13" r:id="rId5" xr:uid="{43C69D84-E7C0-4FF3-B7E4-5E5B5D13D4C9}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{D524DD19-FE92-48C2-9CE4-26E53313F060}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{318F41AF-661E-4D3B-A250-A8E31DF4E902}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{CADEFD76-26A3-41C0-A993-C6014C205DE5}"/>
+    <hyperlink ref="E4" r:id="rId9" xr:uid="{4655FF35-DCF4-42B2-9B9D-A1C9BA783ABA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FA53B17-BB11-48C6-9861-C75E6F599ED1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4001BC8-9E41-4A3B-B807-7BA3E4E66B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="7" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -1905,8 +1905,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1AEE6F-00E1-45BD-84E3-9A46B5808B7B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1945,7 +1945,7 @@
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>252</v>
@@ -1967,7 +1967,7 @@
     </row>
     <row r="3" spans="1:8" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>253</v>
@@ -3609,7 +3609,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B60E14-B30E-4C19-8408-1A7E40875D6F}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4001BC8-9E41-4A3B-B807-7BA3E4E66B3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8281C705-FD77-458F-B9D0-6C3FD504FF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="1" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="3" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="475" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="309">
   <si>
     <t>doi</t>
   </si>
@@ -953,6 +953,12 @@
   </si>
   <si>
     <t>Post Graduate Student Consortium Panelist</t>
+  </si>
+  <si>
+    <t>Tokyo University of the Arts</t>
+  </si>
+  <si>
+    <t>Architectural Informatics Seminar</t>
   </si>
 </sst>
 </file>
@@ -1905,7 +1911,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1AEE6F-00E1-45BD-84E3-9A46B5808B7B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -2218,11 +2224,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2266,47 +2272,47 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>133</v>
-      </c>
+        <v>308</v>
+      </c>
+      <c r="D2" s="7"/>
       <c r="E2" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F2" s="14" t="s">
-        <v>93</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="F2" s="14"/>
       <c r="G2" s="10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H2" s="11">
-        <v>45698</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="10"/>
+        <v>132</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>133</v>
+      </c>
       <c r="E3" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F3" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="G3" s="10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H3" s="11">
-        <v>45630</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2317,41 +2323,41 @@
         <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="D4" s="10"/>
       <c r="E4" s="10" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="F4" s="14"/>
       <c r="G4" s="10" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H4" s="11">
         <v>45630</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
+      <c r="C5" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="7"/>
       <c r="E5" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H5" s="11">
-        <v>45622</v>
-      </c>
-      <c r="I5" s="11"/>
-      <c r="J5" s="12"/>
+        <v>45630</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
@@ -2360,21 +2366,17 @@
       <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
       <c r="E6" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="10" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="H6" s="11">
-        <v>45597</v>
+        <v>45622</v>
       </c>
       <c r="I6" s="11"/>
       <c r="J6" s="12"/>
@@ -2384,23 +2386,23 @@
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D7" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="E7" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>89</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F7" s="14"/>
       <c r="G7" s="10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H7" s="11">
-        <v>45547</v>
+        <v>45597</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
@@ -2410,21 +2412,23 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H8" s="11">
-        <v>45481</v>
+        <v>45547</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
@@ -2434,21 +2438,21 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>94</v>
+        <v>62</v>
+      </c>
+      <c r="F9" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H9" s="11">
-        <v>45364</v>
+        <v>45481</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
@@ -2458,25 +2462,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D10" s="10" t="s">
-        <v>92</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C10" s="10"/>
+      <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>93</v>
+        <v>64</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H10" s="11">
-        <v>45334</v>
+        <v>45364</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
@@ -2486,25 +2486,25 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H11" s="11">
-        <v>45177</v>
+        <v>45334</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
@@ -2517,20 +2517,22 @@
         <v>100</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D12" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="E12" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H12" s="11">
-        <v>44841</v>
+        <v>45177</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
@@ -2540,21 +2542,23 @@
         <v>8</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="G13" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H13" s="11">
-        <v>44768</v>
+        <v>44841</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
@@ -2567,18 +2571,18 @@
         <v>56</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10" t="s">
         <v>72</v>
       </c>
       <c r="H14" s="11">
-        <v>44638</v>
+        <v>44768</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
@@ -2588,21 +2592,21 @@
         <v>8</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C15" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H15" s="11">
-        <v>44539</v>
+        <v>44638</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
@@ -2612,23 +2616,21 @@
         <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="G16" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H16" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H16" s="11">
+        <v>44539</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
@@ -2638,37 +2640,51 @@
         <v>8</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D17" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="D17" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="E17" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H17" s="11">
-        <v>44065</v>
+      <c r="H17" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
+      <c r="A18" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="12"/>
+      <c r="E18" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H18" s="11">
+        <v>44065</v>
+      </c>
+      <c r="I18" s="11"/>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
@@ -2763,7 +2779,7 @@
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
-      <c r="H26" s="13"/>
+      <c r="H26" s="11"/>
       <c r="I26" s="12"/>
       <c r="J26" s="12"/>
     </row>
@@ -2828,36 +2844,48 @@
       <c r="J31" s="12"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
-      <c r="C32" s="12"/>
-      <c r="D32" s="12"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
-      <c r="G32" s="12"/>
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
       <c r="H32" s="13"/>
       <c r="I32" s="12"/>
       <c r="J32" s="12"/>
     </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A33" s="12"/>
+      <c r="B33" s="12"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="12"/>
+      <c r="G33" s="12"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="12"/>
+      <c r="J33" s="12"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A30" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A31" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B34" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
       <formula1>"Invited talk, Paper presentation, Keynote, Selected presentation, Invited lecture, Opening presentation, Invited presentation"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F11" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
-    <hyperlink ref="F8" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
-    <hyperlink ref="F7" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
-    <hyperlink ref="F10" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
-    <hyperlink ref="D16" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
-    <hyperlink ref="F12" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
-    <hyperlink ref="D6" r:id="rId7" xr:uid="{34355159-367A-4386-8EA1-41F107F01C00}"/>
-    <hyperlink ref="F2" r:id="rId8" xr:uid="{06C5679C-AB59-4513-A73D-A58986320FB0}"/>
-    <hyperlink ref="D2" r:id="rId9" xr:uid="{F23263A3-02A8-4F59-A063-C73420A9989E}"/>
+    <hyperlink ref="F12" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
+    <hyperlink ref="F9" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
+    <hyperlink ref="F8" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
+    <hyperlink ref="F11" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
+    <hyperlink ref="D17" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
+    <hyperlink ref="F13" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
+    <hyperlink ref="D7" r:id="rId7" xr:uid="{34355159-367A-4386-8EA1-41F107F01C00}"/>
+    <hyperlink ref="F3" r:id="rId8" xr:uid="{06C5679C-AB59-4513-A73D-A58986320FB0}"/>
+    <hyperlink ref="D3" r:id="rId9" xr:uid="{F23263A3-02A8-4F59-A063-C73420A9989E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8281C705-FD77-458F-B9D0-6C3FD504FF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8F374D-C7FE-48AF-BBC2-9B10FC77ACAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="3" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -892,9 +892,6 @@
     <t>Maria Larsson, Hodaka Yamaguchi, Ehsan Pajouheshgar, I-Chao Shen, Kenji Tojo, Chia-Ming Chang, Lars Hansson, Olof Broman, Takashi Ijiri, Ariel Shamir, Wenzel Jakob, and Takeo Igarashi</t>
   </si>
   <si>
-    <t>mokume/preprint_paper.pdf</t>
-  </si>
-  <si>
     <t>https://youtu.be/H6N-kYbTJOM</t>
   </si>
   <si>
@@ -959,6 +956,9 @@
   </si>
   <si>
     <t>Architectural Informatics Seminar</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3730874</t>
   </si>
 </sst>
 </file>
@@ -1379,9 +1379,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:P27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J3" sqref="J3"/>
+      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1468,29 +1468,29 @@
         <v>284</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="G2" s="1"/>
+      <c r="G2" s="16" t="s">
+        <v>308</v>
+      </c>
       <c r="H2" s="16" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J2" s="16" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="17" t="s">
-        <v>286</v>
-      </c>
+      <c r="P2" s="17"/>
     </row>
     <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -1512,13 +1512,13 @@
         <v>131</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H3" s="16" t="s">
         <v>135</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="J3" s="2"/>
       <c r="K3" s="2"/>
@@ -1548,13 +1548,13 @@
         <v>128</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H4" s="16" t="s">
         <v>134</v>
       </c>
       <c r="I4" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1712,7 +1712,7 @@
         <v>13</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F9" s="6" t="s">
         <v>30</v>
@@ -1894,13 +1894,13 @@
     <hyperlink ref="H5" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
     <hyperlink ref="H4" r:id="rId13" xr:uid="{D2124DA5-21CA-4C5C-90D9-FAE4DBCFE470}"/>
     <hyperlink ref="H3" r:id="rId14" xr:uid="{DC553953-6A36-4D7D-B907-7E8C7FDD75F8}"/>
-    <hyperlink ref="P2" r:id="rId15" display="https://arxiv.org/pdf/2501.15413" xr:uid="{3040D740-80ED-41F1-A1A1-2F6226E3F44E}"/>
-    <hyperlink ref="H2" r:id="rId16" xr:uid="{DD7DACAE-B55C-4373-B7AC-6C3EDFE94B3A}"/>
-    <hyperlink ref="I2" r:id="rId17" xr:uid="{27366247-242C-4CD2-A49A-93C9ABFF0158}"/>
-    <hyperlink ref="I3" r:id="rId18" xr:uid="{A9177797-A40B-463E-8432-F935D521C352}"/>
-    <hyperlink ref="G4" r:id="rId19" xr:uid="{9D746FE8-BC83-456F-AF30-7A4F47F90359}"/>
-    <hyperlink ref="G3" r:id="rId20" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
-    <hyperlink ref="J2" r:id="rId21" xr:uid="{37916EEF-CB37-432C-9DB0-852ECB1981C4}"/>
+    <hyperlink ref="H2" r:id="rId15" xr:uid="{DD7DACAE-B55C-4373-B7AC-6C3EDFE94B3A}"/>
+    <hyperlink ref="I2" r:id="rId16" xr:uid="{27366247-242C-4CD2-A49A-93C9ABFF0158}"/>
+    <hyperlink ref="I3" r:id="rId17" xr:uid="{A9177797-A40B-463E-8432-F935D521C352}"/>
+    <hyperlink ref="G4" r:id="rId18" xr:uid="{9D746FE8-BC83-456F-AF30-7A4F47F90359}"/>
+    <hyperlink ref="G3" r:id="rId19" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
+    <hyperlink ref="J2" r:id="rId20" xr:uid="{37916EEF-CB37-432C-9DB0-852ECB1981C4}"/>
+    <hyperlink ref="G2" r:id="rId21" xr:uid="{067DC93A-81AA-45BD-8907-8F602C993B08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
@@ -2226,7 +2226,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
@@ -2275,11 +2275,11 @@
         <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="10" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="10" t="s">
@@ -2943,14 +2943,14 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
+        <v>289</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>291</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -3390,10 +3390,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D2" s="19">
         <v>45820</v>
@@ -3407,10 +3407,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D3" s="19">
         <v>45773</v>
@@ -3424,10 +3424,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
+        <v>293</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>294</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>295</v>
       </c>
       <c r="D4" s="19">
         <v>45766</v>
@@ -3703,10 +3703,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E4" s="17" t="s">
         <v>215</v>
@@ -3723,7 +3723,7 @@
         <v>224</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E5" s="17" t="s">
         <v>215</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E8F374D-C7FE-48AF-BBC2-9B10FC77ACAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A3DEFD-465E-4CB3-9336-B796F502A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="5" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
-    <sheet name="other_writing" sheetId="11" r:id="rId2"/>
-    <sheet name="grants_and_awards" sheetId="3" r:id="rId3"/>
-    <sheet name="presentations" sheetId="2" r:id="rId4"/>
-    <sheet name="exhibitions" sheetId="5" r:id="rId5"/>
-    <sheet name="design_work" sheetId="6" r:id="rId6"/>
-    <sheet name="media" sheetId="4" r:id="rId7"/>
-    <sheet name="service" sheetId="7" r:id="rId8"/>
+    <sheet name="scrap" sheetId="12" r:id="rId2"/>
+    <sheet name="other_writing" sheetId="11" r:id="rId3"/>
+    <sheet name="grants_and_awards" sheetId="3" r:id="rId4"/>
+    <sheet name="presentations" sheetId="2" r:id="rId5"/>
+    <sheet name="exhibitions" sheetId="5" r:id="rId6"/>
+    <sheet name="design_work" sheetId="6" r:id="rId7"/>
+    <sheet name="media" sheetId="4" r:id="rId8"/>
+    <sheet name="service" sheetId="7" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="325">
   <si>
     <t>doi</t>
   </si>
@@ -667,9 +668,6 @@
     <t>Co-organizer of the Women in Research Lunch</t>
   </si>
   <si>
-    <t>Co-organizer of the Fabrication Meet-up</t>
-  </si>
-  <si>
     <t>CAD/Graphics 2025</t>
   </si>
   <si>
@@ -682,9 +680,6 @@
     <t>https://www.caadria2025.org/</t>
   </si>
   <si>
-    <t>SIGGRAPH and SIGGRAPH Asia 2024</t>
-  </si>
-  <si>
     <t>Pacific Graphics 2024</t>
   </si>
   <si>
@@ -959,6 +954,60 @@
   </si>
   <si>
     <t>https://dl.acm.org/doi/pdf/10.1145/3730874</t>
+  </si>
+  <si>
+    <t>SIGGRAPH 2024-2025, SIGGRAPH Asia 2024</t>
+  </si>
+  <si>
+    <t>https://s2025.siggraph.org/</t>
+  </si>
+  <si>
+    <t>Co-organizer of the Berthouzoz Women in Research Lunch</t>
+  </si>
+  <si>
+    <t>https://www.wigraph.org/events/2025-berthouzoz-women-in-research-lunch/</t>
+  </si>
+  <si>
+    <t>Co-organizer of Sustainable Research in Computer Graphics BoF</t>
+  </si>
+  <si>
+    <t>Co-organizer of the Fabrication Meet-up BoF</t>
+  </si>
+  <si>
+    <t>Aditya Ganeshan, Kurt Fleischer, Wenzel Jakob, Ariel Shamir, Daniel Ritchie, Takeo Igarashi, and Maria Larsson</t>
+  </si>
+  <si>
+    <t>MiGumi: Making Tightly Coupled Integral Joints Millable</t>
+  </si>
+  <si>
+    <t>SIGGRAPH Asia 2025 (conditionally accepted)</t>
+  </si>
+  <si>
+    <t>migumi/migumi.png</t>
+  </si>
+  <si>
+    <t>Symposium on Computational Fabrication (SCF) 2025 (conditionally accepted)</t>
+  </si>
+  <si>
+    <t>Masahiro Kono, Maria Larsson, I-Chao Shen, and Takeo Igarashi</t>
+  </si>
+  <si>
+    <t>Ren Sato, Maria Larsson, Hironori Yoshida</t>
+  </si>
+  <si>
+    <t>ScrapReCover: An Interactive Optimization System for Freeform Patchwork Layouts</t>
+  </si>
+  <si>
+    <t>UpJoint: Updating 3D-Printed Joints for Various Wood Species</t>
+  </si>
+  <si>
+    <t>scrapreco/scrapreco.jpg</t>
+  </si>
+  <si>
+    <t>upjoint/upjoint.jpg</t>
+  </si>
+  <si>
+    <t>scrap</t>
   </si>
 </sst>
 </file>
@@ -1377,11 +1426,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
-  <dimension ref="A1:P27"/>
+  <dimension ref="A1:P28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G3" sqref="G3"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1404,7 +1453,7 @@
     <col min="16" max="16" width="28.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1454,9 +1503,9 @@
         <v>129</v>
       </c>
     </row>
-    <row r="2" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>283</v>
+        <v>316</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -1465,26 +1514,18 @@
         <v>138</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="G2" s="16" t="s">
-        <v>308</v>
-      </c>
-      <c r="H2" s="16" t="s">
-        <v>286</v>
-      </c>
-      <c r="I2" s="16" t="s">
-        <v>291</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>299</v>
-      </c>
+        <v>313</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1492,35 +1533,37 @@
       <c r="O2" s="1"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>265</v>
+        <v>281</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>130</v>
+        <v>282</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>136</v>
+        <v>286</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>131</v>
+        <v>283</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>298</v>
+        <v>306</v>
       </c>
       <c r="H3" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I3" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="J3" s="2"/>
+        <v>284</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="J3" s="16" t="s">
+        <v>297</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1530,31 +1573,31 @@
     </row>
     <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>137</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>136</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H4" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I4" s="16" t="s">
-        <v>295</v>
+        <v>135</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>294</v>
       </c>
       <c r="J4" s="2"/>
       <c r="K4" s="2"/>
@@ -1566,44 +1609,43 @@
     </row>
     <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>126</v>
+        <v>137</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>9</v>
+        <v>127</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>26</v>
+        <v>136</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>113</v>
+        <v>128</v>
+      </c>
+      <c r="G5" s="16" t="s">
+        <v>295</v>
       </c>
       <c r="H5" s="16" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="I5" s="16" t="s">
-        <v>117</v>
+        <v>293</v>
       </c>
       <c r="J5" s="2"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="O5" s="1"/>
+      <c r="P5" s="17"/>
+    </row>
+    <row r="6" spans="1:16" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
@@ -1612,52 +1654,56 @@
         <v>126</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="8" t="s">
-        <v>279</v>
-      </c>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="6"/>
-      <c r="M6" s="6"/>
-      <c r="N6" s="6"/>
-      <c r="O6" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I6" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>277</v>
       </c>
       <c r="H7" s="6"/>
-      <c r="I7" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="I7" s="6"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
       <c r="L7" s="6"/>
@@ -1667,118 +1713,110 @@
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>48</v>
+        <v>138</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G8" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+      <c r="I8" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
-      <c r="M8" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="N8" s="6" t="s">
-        <v>278</v>
-      </c>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>138</v>
+        <v>48</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>287</v>
+        <v>50</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H9" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I9" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J9" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
-      <c r="M9" s="6"/>
-      <c r="N9" s="6"/>
+      <c r="M9" s="6" t="s">
+        <v>275</v>
+      </c>
+      <c r="N9" s="6" t="s">
+        <v>276</v>
+      </c>
       <c r="O9" s="6"/>
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>23</v>
+        <v>285</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G10" s="6" t="s">
-        <v>276</v>
+        <v>45</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I10" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>266</v>
+        <v>273</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
@@ -1787,57 +1825,63 @@
         <v>137</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="J11" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L11" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G12" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B12" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>268</v>
-      </c>
       <c r="H12" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I12" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1846,8 +1890,40 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H13" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
       <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L14" s="6"/>
@@ -1855,7 +1931,9 @@
     <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L16" s="6"/>
+    </row>
     <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -1867,40 +1945,41 @@
     <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B29" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C32" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
+      <formula1>"Technical paper, Short technical paper, Poster, Ph.D. Thesis"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C13:C31" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
-      <formula1>"Technical paper, Short technical paper, Poster, Ph.D. Thesis"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C12" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
       <formula1>"Conference Paper, Journal Paper, Short paper, Poster, Ph.D. Thesis"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I12" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
-    <hyperlink ref="H12" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
-    <hyperlink ref="H11" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
-    <hyperlink ref="I11" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
-    <hyperlink ref="K10" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
-    <hyperlink ref="I10" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
-    <hyperlink ref="H10" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
-    <hyperlink ref="I9" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
-    <hyperlink ref="H9" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
-    <hyperlink ref="I7" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
-    <hyperlink ref="I5" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
-    <hyperlink ref="H5" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
-    <hyperlink ref="H4" r:id="rId13" xr:uid="{D2124DA5-21CA-4C5C-90D9-FAE4DBCFE470}"/>
-    <hyperlink ref="H3" r:id="rId14" xr:uid="{DC553953-6A36-4D7D-B907-7E8C7FDD75F8}"/>
-    <hyperlink ref="H2" r:id="rId15" xr:uid="{DD7DACAE-B55C-4373-B7AC-6C3EDFE94B3A}"/>
-    <hyperlink ref="I2" r:id="rId16" xr:uid="{27366247-242C-4CD2-A49A-93C9ABFF0158}"/>
-    <hyperlink ref="I3" r:id="rId17" xr:uid="{A9177797-A40B-463E-8432-F935D521C352}"/>
-    <hyperlink ref="G4" r:id="rId18" xr:uid="{9D746FE8-BC83-456F-AF30-7A4F47F90359}"/>
-    <hyperlink ref="G3" r:id="rId19" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
-    <hyperlink ref="J2" r:id="rId20" xr:uid="{37916EEF-CB37-432C-9DB0-852ECB1981C4}"/>
-    <hyperlink ref="G2" r:id="rId21" xr:uid="{067DC93A-81AA-45BD-8907-8F602C993B08}"/>
+    <hyperlink ref="I13" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
+    <hyperlink ref="H13" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
+    <hyperlink ref="H12" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
+    <hyperlink ref="I12" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
+    <hyperlink ref="K11" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
+    <hyperlink ref="I11" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
+    <hyperlink ref="H11" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
+    <hyperlink ref="I10" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
+    <hyperlink ref="H10" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
+    <hyperlink ref="I8" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
+    <hyperlink ref="I6" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
+    <hyperlink ref="H6" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
+    <hyperlink ref="H5" r:id="rId13" xr:uid="{D2124DA5-21CA-4C5C-90D9-FAE4DBCFE470}"/>
+    <hyperlink ref="H4" r:id="rId14" xr:uid="{DC553953-6A36-4D7D-B907-7E8C7FDD75F8}"/>
+    <hyperlink ref="H3" r:id="rId15" xr:uid="{DD7DACAE-B55C-4373-B7AC-6C3EDFE94B3A}"/>
+    <hyperlink ref="I3" r:id="rId16" xr:uid="{27366247-242C-4CD2-A49A-93C9ABFF0158}"/>
+    <hyperlink ref="I4" r:id="rId17" xr:uid="{A9177797-A40B-463E-8432-F935D521C352}"/>
+    <hyperlink ref="G5" r:id="rId18" xr:uid="{9D746FE8-BC83-456F-AF30-7A4F47F90359}"/>
+    <hyperlink ref="G4" r:id="rId19" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
+    <hyperlink ref="J3" r:id="rId20" xr:uid="{37916EEF-CB37-432C-9DB0-852ECB1981C4}"/>
+    <hyperlink ref="G3" r:id="rId21" xr:uid="{067DC93A-81AA-45BD-8907-8F602C993B08}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
@@ -1908,6 +1987,97 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{270E6538-B5BF-4F68-9470-7821803976F9}">
+  <dimension ref="A1:P3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="39.81640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="1"/>
+      <c r="P2" s="17"/>
+    </row>
+    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="1"/>
+      <c r="P3" s="17"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
+      <formula1>"Conference Paper, Journal Paper, Short paper, Poster, Ph.D. Thesis"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B3" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
+      <formula1>"yes,no"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA1AEE6F-00E1-45BD-84E3-9A46B5808B7B}">
   <dimension ref="A1:H11"/>
   <sheetViews>
@@ -1937,7 +2107,7 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>181</v>
@@ -1946,7 +2116,7 @@
         <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -1954,20 +2124,20 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>250</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>252</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>254</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F2" s="11">
         <v>44114</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H2" s="20"/>
     </row>
@@ -1976,16 +2146,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="D3" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F3" s="11">
         <v>41913</v>
@@ -2072,7 +2242,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E4DB9F-8835-4B8C-8A22-87E2D29C9595}">
   <dimension ref="A1:F8"/>
   <sheetViews>
@@ -2135,7 +2305,7 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C3" s="17" t="s">
         <v>175</v>
@@ -2222,13 +2392,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14:H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2275,11 +2445,11 @@
         <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="10" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="10" t="s">
@@ -2291,7 +2461,7 @@
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
         <v>54</v>
@@ -2892,11 +3062,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A82A9A4-A682-47E5-867E-575A6C2EBAD3}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2943,14 +3113,14 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -3172,7 +3342,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4844286-1B0F-41B7-868A-450D815A322C}">
   <dimension ref="A1:G8"/>
   <sheetViews>
@@ -3193,16 +3363,16 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D1" s="18" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>141</v>
@@ -3216,16 +3386,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F2">
         <v>2017</v>
@@ -3239,19 +3409,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D3" t="s">
+        <v>229</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F3" t="s">
         <v>231</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>244</v>
-      </c>
-      <c r="F3" t="s">
-        <v>233</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -3262,19 +3432,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>232</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D4" t="s">
+        <v>233</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>243</v>
+      </c>
+      <c r="F4" t="s">
         <v>234</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>250</v>
-      </c>
-      <c r="D4" t="s">
-        <v>235</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>245</v>
-      </c>
-      <c r="F4" t="s">
-        <v>236</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -3285,13 +3455,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D5" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="F5">
         <v>2014</v>
@@ -3305,19 +3475,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D6" t="s">
+        <v>236</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" t="s">
         <v>238</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="F6" t="s">
-        <v>240</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
@@ -3350,12 +3520,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC9BF40C-790B-4CF4-A05F-7E113109C631}">
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3390,10 +3560,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D2" s="19">
         <v>45820</v>
@@ -3404,13 +3574,13 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D3" s="19">
         <v>45773</v>
@@ -3421,13 +3591,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D4" s="19">
         <v>45766</v>
@@ -3475,7 +3645,7 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="C7" s="17" t="s">
         <v>195</v>
@@ -3633,12 +3803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20B60E14-B30E-4C19-8408-1A7E40875D6F}">
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3658,13 +3828,13 @@
         <v>203</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>141</v>
@@ -3675,13 +3845,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>208</v>
+        <v>312</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>282</v>
+        <v>307</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -3689,13 +3859,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>209</v>
+        <v>309</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>310</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="E3" t="s">
-        <v>214</v>
+        <v>308</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -3703,30 +3876,28 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
-      </c>
+        <v>311</v>
+      </c>
+      <c r="C4" s="17"/>
       <c r="D4" t="s">
-        <v>302</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>215</v>
+        <v>286</v>
+      </c>
+      <c r="E4" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>204</v>
-      </c>
-      <c r="C5" t="s">
-        <v>224</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>215</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3734,19 +3905,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F6" t="s">
-        <v>206</v>
+        <v>211</v>
+      </c>
+      <c r="E6" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -3754,13 +3919,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>303</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>300</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>91</v>
+        <v>214</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -3768,16 +3933,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>226</v>
+        <v>204</v>
+      </c>
+      <c r="C8" t="s">
+        <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" t="s">
-        <v>91</v>
+        <v>300</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -3785,13 +3950,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>211</v>
+        <v>278</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="D9" t="s">
-        <v>216</v>
+        <v>205</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>180</v>
+      </c>
+      <c r="F9" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -3799,12 +3970,12 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="17" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3813,13 +3984,16 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>208</v>
+        <v>210</v>
+      </c>
+      <c r="C11" s="17" t="s">
+        <v>224</v>
       </c>
       <c r="D11" t="s">
-        <v>217</v>
-      </c>
-      <c r="E11" s="17" t="s">
-        <v>221</v>
+        <v>26</v>
+      </c>
+      <c r="E11" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
@@ -3830,10 +4004,10 @@
         <v>208</v>
       </c>
       <c r="D12" t="s">
-        <v>218</v>
+        <v>26</v>
       </c>
       <c r="E12" t="s">
-        <v>220</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.35">
@@ -3841,13 +4015,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D13" t="s">
+        <v>215</v>
+      </c>
+      <c r="E13" s="17" t="s">
         <v>219</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -3855,25 +4029,53 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
+        <v>208</v>
+      </c>
+      <c r="D14" t="s">
+        <v>216</v>
+      </c>
+      <c r="E14" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" t="s">
+        <v>207</v>
+      </c>
+      <c r="D15" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="17" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
         <v>202</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2 A3:A14" xr:uid="{2096F4DE-C26D-4837-A07C-FEF87FC35498}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A4 A2:A3 A5:A16" xr:uid="{2096F4DE-C26D-4837-A07C-FEF87FC35498}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" xr:uid="{8308E64D-8B27-4F37-BBCD-05D5F23A79A7}"/>
-    <hyperlink ref="E6" r:id="rId2" xr:uid="{F26C4B98-93BB-4ECE-BFC6-870F5A782AC4}"/>
-    <hyperlink ref="E7" r:id="rId3" xr:uid="{DDB4BF0D-A1DA-4B48-BABA-7A2EF356AF39}"/>
-    <hyperlink ref="E11" r:id="rId4" xr:uid="{555B9FA3-1DC2-4D0A-BF79-58FC41E5D8F1}"/>
-    <hyperlink ref="E13" r:id="rId5" xr:uid="{43C69D84-E7C0-4FF3-B7E4-5E5B5D13D4C9}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{D524DD19-FE92-48C2-9CE4-26E53313F060}"/>
-    <hyperlink ref="C8" r:id="rId7" xr:uid="{318F41AF-661E-4D3B-A250-A8E31DF4E902}"/>
-    <hyperlink ref="C9" r:id="rId8" xr:uid="{CADEFD76-26A3-41C0-A993-C6014C205DE5}"/>
-    <hyperlink ref="E4" r:id="rId9" xr:uid="{4655FF35-DCF4-42B2-9B9D-A1C9BA783ABA}"/>
+    <hyperlink ref="E8" r:id="rId1" xr:uid="{8308E64D-8B27-4F37-BBCD-05D5F23A79A7}"/>
+    <hyperlink ref="E9" r:id="rId2" xr:uid="{F26C4B98-93BB-4ECE-BFC6-870F5A782AC4}"/>
+    <hyperlink ref="E10" r:id="rId3" xr:uid="{DDB4BF0D-A1DA-4B48-BABA-7A2EF356AF39}"/>
+    <hyperlink ref="E13" r:id="rId4" xr:uid="{555B9FA3-1DC2-4D0A-BF79-58FC41E5D8F1}"/>
+    <hyperlink ref="E15" r:id="rId5" xr:uid="{43C69D84-E7C0-4FF3-B7E4-5E5B5D13D4C9}"/>
+    <hyperlink ref="C9" r:id="rId6" xr:uid="{D524DD19-FE92-48C2-9CE4-26E53313F060}"/>
+    <hyperlink ref="C11" r:id="rId7" xr:uid="{318F41AF-661E-4D3B-A250-A8E31DF4E902}"/>
+    <hyperlink ref="C2" r:id="rId8" xr:uid="{CADEFD76-26A3-41C0-A993-C6014C205DE5}"/>
+    <hyperlink ref="E7" r:id="rId9" xr:uid="{4655FF35-DCF4-42B2-9B9D-A1C9BA783ABA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A3DEFD-465E-4CB3-9336-B796F502A5F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9015C7A7-245F-4675-A0A5-CA2C10E9FCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="5" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="329">
   <si>
     <t>doi</t>
   </si>
@@ -1008,6 +1008,18 @@
   </si>
   <si>
     <t>scrap</t>
+  </si>
+  <si>
+    <t>https://github.com/marialarsson/mokumeproject</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>https://zenodo.org/records/15588748</t>
+  </si>
+  <si>
+    <t>data_downloads</t>
   </si>
 </sst>
 </file>
@@ -1426,11 +1438,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1453,7 +1465,7 @@
     <col min="16" max="16" width="28.90625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>19</v>
       </c>
@@ -1502,8 +1514,14 @@
       <c r="P1" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q1" s="2" t="s">
+        <v>326</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>316</v>
       </c>
@@ -1533,7 +1551,7 @@
       <c r="O2" s="1"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>281</v>
       </c>
@@ -1564,14 +1582,19 @@
       <c r="J3" s="16" t="s">
         <v>297</v>
       </c>
-      <c r="K3" s="2"/>
+      <c r="K3" s="16" t="s">
+        <v>325</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
       <c r="P3" s="17"/>
-    </row>
-    <row r="4" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+      <c r="Q3" s="17" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>263</v>
       </c>
@@ -1607,7 +1630,7 @@
       <c r="O4" s="1"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>262</v>
       </c>
@@ -1643,7 +1666,7 @@
       <c r="O5" s="1"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:16" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>271</v>
       </c>
@@ -1680,7 +1703,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>270</v>
       </c>
@@ -1711,7 +1734,7 @@
       <c r="N7" s="6"/>
       <c r="O7" s="6"/>
     </row>
-    <row r="8" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>269</v>
       </c>
@@ -1744,7 +1767,7 @@
       <c r="N8" s="6"/>
       <c r="O8" s="6"/>
     </row>
-    <row r="9" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>272</v>
       </c>
@@ -1777,7 +1800,7 @@
       </c>
       <c r="O9" s="6"/>
     </row>
-    <row r="10" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>268</v>
       </c>
@@ -1814,7 +1837,7 @@
       <c r="N10" s="6"/>
       <c r="O10" s="6"/>
     </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>273</v>
       </c>
@@ -1855,7 +1878,7 @@
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>264</v>
       </c>
@@ -1890,7 +1913,7 @@
       <c r="N12" s="6"/>
       <c r="O12" s="6"/>
     </row>
-    <row r="13" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>265</v>
       </c>
@@ -1925,13 +1948,13 @@
       <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L14" s="6"/>
     </row>
-    <row r="15" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L15" s="6"/>
     </row>
-    <row r="16" spans="1:16" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L16" s="6"/>
     </row>
     <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -1980,9 +2003,11 @@
     <hyperlink ref="G4" r:id="rId19" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
     <hyperlink ref="J3" r:id="rId20" xr:uid="{37916EEF-CB37-432C-9DB0-852ECB1981C4}"/>
     <hyperlink ref="G3" r:id="rId21" xr:uid="{067DC93A-81AA-45BD-8907-8F602C993B08}"/>
+    <hyperlink ref="K3" r:id="rId22" xr:uid="{1EDD02B0-6EF3-439F-97AE-B557BAE6C2CA}"/>
+    <hyperlink ref="Q3" r:id="rId23" xr:uid="{ABA50311-0C32-40E5-ABF3-FCE081CD5CC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId22"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -3066,7 +3091,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A82A9A4-A682-47E5-867E-575A6C2EBAD3}">
   <dimension ref="A1:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9015C7A7-245F-4675-A0A5-CA2C10E9FCF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262AF15-73EB-4029-B185-61D2083DCC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="340">
   <si>
     <t>doi</t>
   </si>
@@ -851,9 +851,6 @@
     <t>reconfigurable/reconfigurable_joints.jpg</t>
   </si>
   <si>
-    <t>thesis/thesis_img.jpg</t>
-  </si>
-  <si>
     <t>tsugite/tsugite_img2.jpg</t>
   </si>
   <si>
@@ -1020,6 +1017,42 @@
   </si>
   <si>
     <t>data_downloads</t>
+  </si>
+  <si>
+    <t>Additional Captions Generated by GPT-4 for Furniture Assembly Manuals</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>Computational Tailor-Making for Personalized, Shape-changing, and Sustainable Fabrics</t>
+  </si>
+  <si>
+    <t>User Interface Software and Technology (UIST) 2025 (conditionally accepted)</t>
+  </si>
+  <si>
+    <t>Ren Sato, Maria Larsson, and Hironori Yoshida</t>
+  </si>
+  <si>
+    <t>Koya Narumi, Yuichi Hirose, Hsuanling Lee, Maria Larsson, Liang He, Mackenzie Leake, Jack Forman, Behnaz Farahi, Lining Yao, and Takeo Igarashi</t>
+  </si>
+  <si>
+    <t>Artificial Intelligence in HCI (AI-HCI) 2025</t>
+  </si>
+  <si>
+    <t>Ryuki Maeda, Maria Larsson, Hironori Yoshida</t>
+  </si>
+  <si>
+    <t>blank.jpg</t>
+  </si>
+  <si>
+    <t>various/scraprecov.jpg</t>
+  </si>
+  <si>
+    <t>various/upjoint.jpg</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/chapter/10.1007/978-3-031-93418-6_12</t>
   </si>
 </sst>
 </file>
@@ -1438,11 +1471,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
-  <dimension ref="A1:R28"/>
+  <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R3" sqref="R3"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1515,30 +1548,30 @@
         <v>129</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>316</v>
+        <v>337</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -1553,76 +1586,57 @@
     </row>
     <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>281</v>
+        <v>338</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>282</v>
+        <v>320</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>283</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>306</v>
-      </c>
-      <c r="H3" s="16" t="s">
-        <v>284</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>289</v>
-      </c>
-      <c r="J3" s="16" t="s">
-        <v>297</v>
-      </c>
-      <c r="K3" s="16" t="s">
-        <v>325</v>
-      </c>
+        <v>332</v>
+      </c>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
       <c r="P3" s="17"/>
-      <c r="Q3" s="17" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>263</v>
+        <v>336</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>137</v>
+        <v>329</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>130</v>
+        <v>330</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>136</v>
+        <v>331</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>296</v>
-      </c>
-      <c r="H4" s="16" t="s">
-        <v>135</v>
-      </c>
-      <c r="I4" s="17" t="s">
-        <v>294</v>
-      </c>
-      <c r="J4" s="2"/>
+        <v>333</v>
+      </c>
+      <c r="G4" s="16"/>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="16"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
@@ -1632,33 +1646,27 @@
     </row>
     <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>262</v>
+        <v>315</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>127</v>
+        <v>313</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>136</v>
+        <v>314</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="H5" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I5" s="16" t="s">
-        <v>293</v>
-      </c>
-      <c r="J5" s="2"/>
+        <v>312</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -1666,245 +1674,247 @@
       <c r="O5" s="1"/>
       <c r="P5" s="17"/>
     </row>
-    <row r="6" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>9</v>
+        <v>281</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>26</v>
+        <v>285</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>113</v>
+        <v>282</v>
+      </c>
+      <c r="G6" s="16" t="s">
+        <v>305</v>
       </c>
       <c r="H6" s="16" t="s">
-        <v>120</v>
+        <v>283</v>
       </c>
       <c r="I6" s="16" t="s">
-        <v>117</v>
-      </c>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
+        <v>288</v>
+      </c>
+      <c r="J6" s="16" t="s">
+        <v>296</v>
+      </c>
+      <c r="K6" s="16" t="s">
+        <v>324</v>
+      </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="1"/>
+      <c r="P6" s="17"/>
+      <c r="Q6" s="17" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="17"/>
+      <c r="Q7" s="17"/>
+    </row>
+    <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F8" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G8" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>293</v>
+      </c>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="17"/>
+    </row>
+    <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="G9" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="H9" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="I9" s="16" t="s">
+        <v>292</v>
+      </c>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="17"/>
+    </row>
+    <row r="10" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I10" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="1" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="7" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>270</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-    </row>
-    <row r="8" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>269</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G8" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
-      <c r="N8" s="6"/>
-      <c r="O8" s="6"/>
-    </row>
-    <row r="9" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E9" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="6"/>
-      <c r="K9" s="6"/>
-      <c r="L9" s="6"/>
-      <c r="M9" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="N9" s="6" t="s">
-        <v>276</v>
-      </c>
-      <c r="O9" s="6"/>
-    </row>
-    <row r="10" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I10" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J10" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="K10" s="6"/>
-      <c r="L10" s="6"/>
-      <c r="M10" s="6"/>
-      <c r="N10" s="6"/>
-      <c r="O10" s="6"/>
     </row>
     <row r="11" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>137</v>
+        <v>126</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="H11" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="I11" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J11" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K11" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="G11" s="8" t="s">
+        <v>276</v>
+      </c>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
       <c r="O11" s="6"/>
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G12" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="H12" s="8" t="s">
-        <v>36</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="H12" s="6"/>
       <c r="I12" s="8" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
@@ -1915,96 +1925,242 @@
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>265</v>
+        <v>336</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>126</v>
+        <v>48</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="H13" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" s="8" t="s">
-        <v>34</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="6"/>
+      <c r="M13" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="N13" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="O13" s="6"/>
     </row>
-    <row r="14" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A14" s="6" t="s">
+        <v>268</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="I14" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J14" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-    </row>
-    <row r="15" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="L15" s="6"/>
-    </row>
-    <row r="16" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+    </row>
+    <row r="15" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A15" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="I15" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J15" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L15" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+    </row>
+    <row r="16" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="H16" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="I16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
       <c r="L16" s="6"/>
-    </row>
-    <row r="17" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="18" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="19" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="20" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="21" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="22" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="23" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="24" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="25" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="26" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="27" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
-    <row r="28" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+    </row>
+    <row r="17" spans="1:15" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A17" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>266</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+    </row>
+    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L18" s="6"/>
+    </row>
+    <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L19" s="6"/>
+    </row>
+    <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L20" s="6"/>
+    </row>
+    <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="25" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="29" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C14:C32" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C36" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
       <formula1>"Technical paper, Short technical paper, Poster, Ph.D. Thesis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B30" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B34" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C13" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
-      <formula1>"Conference Paper, Journal Paper, Short paper, Poster, Ph.D. Thesis"</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
+      <formula1>"Conference Paper, Journal Paper, Short paper, Poster, Ph.D. Thesis, Workshop"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I13" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
-    <hyperlink ref="H13" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
-    <hyperlink ref="H12" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
-    <hyperlink ref="I12" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
-    <hyperlink ref="K11" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
-    <hyperlink ref="I11" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
-    <hyperlink ref="I10" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
-    <hyperlink ref="H10" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
-    <hyperlink ref="I8" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
-    <hyperlink ref="I6" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
-    <hyperlink ref="H6" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
-    <hyperlink ref="H5" r:id="rId13" xr:uid="{D2124DA5-21CA-4C5C-90D9-FAE4DBCFE470}"/>
-    <hyperlink ref="H4" r:id="rId14" xr:uid="{DC553953-6A36-4D7D-B907-7E8C7FDD75F8}"/>
-    <hyperlink ref="H3" r:id="rId15" xr:uid="{DD7DACAE-B55C-4373-B7AC-6C3EDFE94B3A}"/>
-    <hyperlink ref="I3" r:id="rId16" xr:uid="{27366247-242C-4CD2-A49A-93C9ABFF0158}"/>
-    <hyperlink ref="I4" r:id="rId17" xr:uid="{A9177797-A40B-463E-8432-F935D521C352}"/>
-    <hyperlink ref="G5" r:id="rId18" xr:uid="{9D746FE8-BC83-456F-AF30-7A4F47F90359}"/>
-    <hyperlink ref="G4" r:id="rId19" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
-    <hyperlink ref="J3" r:id="rId20" xr:uid="{37916EEF-CB37-432C-9DB0-852ECB1981C4}"/>
-    <hyperlink ref="G3" r:id="rId21" xr:uid="{067DC93A-81AA-45BD-8907-8F602C993B08}"/>
-    <hyperlink ref="K3" r:id="rId22" xr:uid="{1EDD02B0-6EF3-439F-97AE-B557BAE6C2CA}"/>
-    <hyperlink ref="Q3" r:id="rId23" xr:uid="{ABA50311-0C32-40E5-ABF3-FCE081CD5CC8}"/>
+    <hyperlink ref="I17" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
+    <hyperlink ref="H17" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
+    <hyperlink ref="H16" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
+    <hyperlink ref="I16" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
+    <hyperlink ref="K15" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
+    <hyperlink ref="I15" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
+    <hyperlink ref="H15" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
+    <hyperlink ref="I14" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
+    <hyperlink ref="H14" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
+    <hyperlink ref="I12" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
+    <hyperlink ref="I10" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
+    <hyperlink ref="H10" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
+    <hyperlink ref="H9" r:id="rId13" xr:uid="{D2124DA5-21CA-4C5C-90D9-FAE4DBCFE470}"/>
+    <hyperlink ref="H8" r:id="rId14" xr:uid="{DC553953-6A36-4D7D-B907-7E8C7FDD75F8}"/>
+    <hyperlink ref="H6" r:id="rId15" xr:uid="{DD7DACAE-B55C-4373-B7AC-6C3EDFE94B3A}"/>
+    <hyperlink ref="I6" r:id="rId16" xr:uid="{27366247-242C-4CD2-A49A-93C9ABFF0158}"/>
+    <hyperlink ref="I8" r:id="rId17" xr:uid="{A9177797-A40B-463E-8432-F935D521C352}"/>
+    <hyperlink ref="G9" r:id="rId18" xr:uid="{9D746FE8-BC83-456F-AF30-7A4F47F90359}"/>
+    <hyperlink ref="G8" r:id="rId19" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
+    <hyperlink ref="J6" r:id="rId20" xr:uid="{37916EEF-CB37-432C-9DB0-852ECB1981C4}"/>
+    <hyperlink ref="G6" r:id="rId21" xr:uid="{067DC93A-81AA-45BD-8907-8F602C993B08}"/>
+    <hyperlink ref="K6" r:id="rId22" xr:uid="{1EDD02B0-6EF3-439F-97AE-B557BAE6C2CA}"/>
+    <hyperlink ref="Q6" r:id="rId23" xr:uid="{ABA50311-0C32-40E5-ABF3-FCE081CD5CC8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
@@ -2026,12 +2182,12 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -2040,13 +2196,13 @@
         <v>137</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>318</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -2061,7 +2217,7 @@
     </row>
     <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -2070,13 +2226,13 @@
         <v>137</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -2470,11 +2626,11 @@
         <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="10" t="s">
@@ -3138,14 +3294,14 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>287</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>288</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -3585,10 +3741,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D2" s="19">
         <v>45820</v>
@@ -3602,10 +3758,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D3" s="19">
         <v>45773</v>
@@ -3619,10 +3775,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>290</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>291</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>292</v>
       </c>
       <c r="D4" s="19">
         <v>45766</v>
@@ -3870,13 +4026,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C2" s="17" t="s">
         <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -3884,16 +4040,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>308</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>309</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>310</v>
-      </c>
       <c r="D3" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E3" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -3901,14 +4057,14 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -3919,10 +4075,10 @@
         <v>208</v>
       </c>
       <c r="D5" t="s">
+        <v>278</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>279</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -3944,10 +4100,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>214</v>
@@ -3964,7 +4120,7 @@
         <v>222</v>
       </c>
       <c r="D8" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E8" s="17" t="s">
         <v>214</v>
@@ -3975,7 +4131,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C9" s="17" t="s">
         <v>223</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7262AF15-73EB-4029-B185-61D2083DCC7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD5D96B-787A-404D-BE12-D6009198296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -413,9 +413,6 @@
     <t>Seminar on Sustainable Wood Construction</t>
   </si>
   <si>
-    <t>Short paper</t>
-  </si>
-  <si>
     <t>Draw2Cut: Direct On-Material Annotations for CNC Milling</t>
   </si>
   <si>
@@ -1053,6 +1050,9 @@
   </si>
   <si>
     <t>https://link.springer.com/chapter/10.1007/978-3-031-93418-6_12</t>
+  </si>
+  <si>
+    <t>Short Paper</t>
   </si>
 </sst>
 </file>
@@ -1473,9 +1473,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1545,33 +1545,33 @@
         <v>118</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -1586,22 +1586,22 @@
     </row>
     <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -1616,22 +1616,22 @@
     </row>
     <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="D4" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="E4" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>331</v>
-      </c>
       <c r="F4" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
@@ -1646,22 +1646,22 @@
     </row>
     <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D5" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="E5" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -1676,37 +1676,37 @@
     </row>
     <row r="6" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D6" s="6" t="s">
+        <v>280</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>285</v>
-      </c>
-      <c r="F6" s="6" t="s">
+      <c r="G6" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="H6" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="G6" s="16" t="s">
-        <v>305</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>283</v>
-      </c>
       <c r="I6" s="16" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="J6" s="16" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1714,32 +1714,32 @@
       <c r="O6" s="1"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>334</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>335</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -1752,31 +1752,31 @@
     </row>
     <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D8" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>131</v>
-      </c>
       <c r="G8" s="16" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I8" s="17" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="J8" s="2"/>
       <c r="K8" s="2"/>
@@ -1788,31 +1788,31 @@
     </row>
     <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D9" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>128</v>
-      </c>
       <c r="G9" s="16" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1824,13 +1824,13 @@
     </row>
     <row r="10" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>126</v>
+        <v>339</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="11" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>126</v>
+        <v>339</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -1879,7 +1879,7 @@
         <v>28</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -1892,13 +1892,13 @@
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D12" s="6" t="s">
         <v>11</v>
@@ -1925,7 +1925,7 @@
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>8</v>
@@ -1949,28 +1949,28 @@
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
       <c r="M13" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N13" s="6" t="s">
         <v>274</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>275</v>
       </c>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>13</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F14" s="6" t="s">
         <v>30</v>
@@ -1995,13 +1995,13 @@
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D15" s="6" t="s">
         <v>14</v>
@@ -2013,7 +2013,7 @@
         <v>31</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H15" s="8" t="s">
         <v>41</v>
@@ -2036,13 +2036,13 @@
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>15</v>
@@ -2054,7 +2054,7 @@
         <v>32</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="H16" s="8" t="s">
         <v>36</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>126</v>
+        <v>339</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
@@ -2089,7 +2089,7 @@
         <v>33</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H17" s="8" t="s">
         <v>35</v>
@@ -2126,15 +2126,18 @@
     <row r="31" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C36" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
       <formula1>"Technical paper, Short technical paper, Poster, Ph.D. Thesis"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B34" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C17" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
       <formula1>"Conference Paper, Journal Paper, Short paper, Poster, Ph.D. Thesis, Workshop"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C17" xr:uid="{AD0C0355-A892-4697-A2B7-BB8CB519C3CA}">
+      <formula1>"Conference Paper, Journal Paper, Short Paper, Poster, Ph.D. Thesis, Workshop"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2182,27 +2185,27 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>316</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -2217,22 +2220,22 @@
     </row>
     <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
@@ -2288,16 +2291,16 @@
         <v>6</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>53</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="29" x14ac:dyDescent="0.35">
@@ -2305,20 +2308,20 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D2" s="6"/>
       <c r="E2" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F2" s="11">
         <v>44114</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H2" s="20"/>
     </row>
@@ -2327,16 +2330,16 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="E3" s="6" t="s">
         <v>258</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>259</v>
       </c>
       <c r="F3" s="11">
         <v>41913</v>
@@ -2446,19 +2449,19 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>171</v>
+      </c>
+      <c r="F1" s="18" t="s">
         <v>140</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="D1" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F1" s="18" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -2466,19 +2469,19 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>176</v>
+      </c>
+      <c r="D2" t="s">
         <v>147</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>177</v>
       </c>
-      <c r="D2" t="s">
-        <v>148</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>178</v>
-      </c>
       <c r="F2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2486,19 +2489,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2506,19 +2509,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D4" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2526,13 +2529,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F5" t="s">
         <v>142</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>174</v>
-      </c>
-      <c r="F5" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2540,10 +2543,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="F6">
         <v>2009</v>
@@ -2626,11 +2629,11 @@
         <v>56</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D2" s="7"/>
       <c r="E2" s="10" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F2" s="14"/>
       <c r="G2" s="10" t="s">
@@ -2648,10 +2651,10 @@
         <v>54</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>84</v>
@@ -3268,25 +3271,25 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>106</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F1" s="18" t="s">
         <v>52</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H1" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
@@ -3294,14 +3297,14 @@
         <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" t="s">
+        <v>285</v>
+      </c>
+      <c r="E2" s="17" t="s">
         <v>286</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>287</v>
       </c>
       <c r="F2" t="s">
         <v>58</v>
@@ -3322,10 +3325,10 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
         <v>58</v>
@@ -3368,13 +3371,13 @@
         <v>107</v>
       </c>
       <c r="D5" t="s">
+        <v>153</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>168</v>
+      </c>
+      <c r="F5" t="s">
         <v>154</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>169</v>
-      </c>
-      <c r="F5" t="s">
-        <v>155</v>
       </c>
       <c r="G5">
         <v>2020</v>
@@ -3388,16 +3391,16 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F6" t="s">
         <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>7</v>
@@ -3408,16 +3411,16 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D7" t="s">
         <v>112</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G7">
         <v>2018</v>
@@ -3431,10 +3434,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D8" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="F8" t="s">
         <v>58</v>
@@ -3451,13 +3454,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D9" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="F9" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G9">
         <v>2012</v>
@@ -3544,22 +3547,22 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="D1" s="18" t="s">
         <v>226</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="E1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="D1" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="E1" s="18" t="s">
-        <v>240</v>
-      </c>
       <c r="F1" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G1" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
@@ -3567,16 +3570,16 @@
         <v>8</v>
       </c>
       <c r="B2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>240</v>
+      </c>
+      <c r="D2" t="s">
         <v>228</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>241</v>
-      </c>
-      <c r="D2" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>242</v>
       </c>
       <c r="F2">
         <v>2017</v>
@@ -3590,19 +3593,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>241</v>
+      </c>
+      <c r="F3" t="s">
         <v>230</v>
-      </c>
-      <c r="C3" s="17" t="s">
-        <v>247</v>
-      </c>
-      <c r="D3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3" s="17" t="s">
-        <v>242</v>
-      </c>
-      <c r="F3" t="s">
-        <v>231</v>
       </c>
       <c r="G3" s="6" t="s">
         <v>7</v>
@@ -3613,19 +3616,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>247</v>
+      </c>
+      <c r="D4" t="s">
         <v>232</v>
       </c>
-      <c r="C4" s="17" t="s">
-        <v>248</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" s="17" t="s">
+        <v>242</v>
+      </c>
+      <c r="F4" t="s">
         <v>233</v>
-      </c>
-      <c r="E4" s="17" t="s">
-        <v>243</v>
-      </c>
-      <c r="F4" t="s">
-        <v>234</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>8</v>
@@ -3636,13 +3639,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
+        <v>243</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>244</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>245</v>
       </c>
       <c r="F5">
         <v>2014</v>
@@ -3656,19 +3659,19 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>248</v>
+      </c>
+      <c r="D6" t="s">
+        <v>235</v>
+      </c>
+      <c r="E6" s="17" t="s">
+        <v>245</v>
+      </c>
+      <c r="F6" t="s">
         <v>237</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>249</v>
-      </c>
-      <c r="D6" t="s">
-        <v>236</v>
-      </c>
-      <c r="E6" s="17" t="s">
-        <v>246</v>
-      </c>
-      <c r="F6" t="s">
-        <v>238</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>8</v>
@@ -3724,16 +3727,16 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>53</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -3741,10 +3744,10 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D2" s="19">
         <v>45820</v>
@@ -3758,10 +3761,10 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" s="19">
         <v>45773</v>
@@ -3775,10 +3778,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
+        <v>289</v>
+      </c>
+      <c r="C4" s="17" t="s">
         <v>290</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>291</v>
       </c>
       <c r="D4" s="19">
         <v>45766</v>
@@ -3792,10 +3795,10 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D5" s="19">
         <v>45638</v>
@@ -3809,10 +3812,10 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D6" s="19">
         <v>45292</v>
@@ -3826,10 +3829,10 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C7" s="17" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D7" s="19">
         <v>45153</v>
@@ -3843,10 +3846,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="17" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D8" s="19">
         <v>44531</v>
@@ -3860,10 +3863,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D9" s="19">
         <v>44299</v>
@@ -3877,10 +3880,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D10" s="19">
         <v>44294</v>
@@ -3894,10 +3897,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="19">
         <v>44146</v>
@@ -3911,10 +3914,10 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C12" s="17" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D12" s="19">
         <v>44134</v>
@@ -3928,10 +3931,10 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D13" s="19">
         <v>44127</v>
@@ -3945,10 +3948,10 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D14" s="19">
         <v>44125</v>
@@ -4006,19 +4009,19 @@
         <v>18</v>
       </c>
       <c r="B1" s="18" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C1" s="18" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D1" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E1" s="18" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="F1" s="18" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
@@ -4026,13 +4029,13 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -4040,16 +4043,16 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
+        <v>307</v>
+      </c>
+      <c r="C3" s="17" t="s">
         <v>308</v>
       </c>
-      <c r="C3" s="17" t="s">
-        <v>309</v>
-      </c>
       <c r="D3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E3" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -4057,14 +4060,14 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="C4" s="17"/>
       <c r="D4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -4072,13 +4075,13 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D5" t="s">
+        <v>277</v>
+      </c>
+      <c r="E5" s="17" t="s">
         <v>278</v>
-      </c>
-      <c r="E5" s="17" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -4086,13 +4089,13 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
@@ -4100,13 +4103,13 @@
         <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E7" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
@@ -4114,16 +4117,16 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D8" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E8" s="17" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -4131,19 +4134,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C9" s="17" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D9" t="s">
+        <v>204</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>179</v>
+      </c>
+      <c r="F9" t="s">
         <v>205</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>180</v>
-      </c>
-      <c r="F9" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.35">
@@ -4151,7 +4154,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -4165,10 +4168,10 @@
         <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -4182,7 +4185,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D12" t="s">
         <v>26</v>
@@ -4196,13 +4199,13 @@
         <v>8</v>
       </c>
       <c r="B13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E13" s="17" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
@@ -4210,13 +4213,13 @@
         <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
@@ -4224,13 +4227,13 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -4238,7 +4241,7 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD5D96B-787A-404D-BE12-D6009198296F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5ADEB4-DE18-4A1B-8C03-7C1290E6F1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="340">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="344">
   <si>
     <t>doi</t>
   </si>
@@ -1025,9 +1025,6 @@
     <t>Computational Tailor-Making for Personalized, Shape-changing, and Sustainable Fabrics</t>
   </si>
   <si>
-    <t>User Interface Software and Technology (UIST) 2025 (conditionally accepted)</t>
-  </si>
-  <si>
     <t>Ren Sato, Maria Larsson, and Hironori Yoshida</t>
   </si>
   <si>
@@ -1053,6 +1050,21 @@
   </si>
   <si>
     <t>Short Paper</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3746058.3758470</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3745778.3766653</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3745778.3766648</t>
+  </si>
+  <si>
+    <t>Symposium on Computational Fabrication (SCF) 2025</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User Interface Software and Technology (UIST) 2025 </t>
   </si>
 </sst>
 </file>
@@ -1473,9 +1485,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1554,24 +1566,24 @@
         <v>326</v>
       </c>
     </row>
-    <row r="2" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -1584,9 +1596,9 @@
       <c r="O2" s="1"/>
       <c r="P2" s="17"/>
     </row>
-    <row r="3" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -1595,17 +1607,19 @@
         <v>136</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>315</v>
+        <v>342</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
+      <c r="I3" s="17" t="s">
+        <v>340</v>
+      </c>
       <c r="J3" s="16"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
@@ -1614,28 +1628,30 @@
       <c r="O3" s="1"/>
       <c r="P3" s="17"/>
     </row>
-    <row r="4" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>328</v>
+        <v>136</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E4" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>330</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>332</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
-      <c r="I4" s="16"/>
+      <c r="I4" s="16" t="s">
+        <v>341</v>
+      </c>
       <c r="J4" s="16"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
@@ -1644,28 +1660,30 @@
       <c r="O4" s="1"/>
       <c r="P4" s="17"/>
     </row>
-    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>137</v>
+        <v>328</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>312</v>
+        <v>329</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>313</v>
+        <v>343</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>311</v>
+        <v>331</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
+      <c r="I5" s="16" t="s">
+        <v>339</v>
+      </c>
       <c r="J5" s="16"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
@@ -1719,7 +1737,7 @@
     </row>
     <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -1731,15 +1749,15 @@
         <v>327</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>333</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -1830,7 +1848,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1867,7 +1885,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -1925,7 +1943,7 @@
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>8</v>
@@ -2077,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
@@ -2130,14 +2148,14 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C36" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
       <formula1>"Technical paper, Short technical paper, Poster, Ph.D. Thesis"</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
+      <formula1>"Conference Paper, Journal Paper, Short paper, Poster, Ph.D. Thesis, Workshop"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5:C17" xr:uid="{AD0C0355-A892-4697-A2B7-BB8CB519C3CA}">
+      <formula1>"Conference Paper, Journal Paper, Short Paper, Poster, Ph.D. Thesis, Workshop"</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B34" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
       <formula1>"yes,no"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
-      <formula1>"Conference Paper, Journal Paper, Short paper, Poster, Ph.D. Thesis, Workshop"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C17" xr:uid="{AD0C0355-A892-4697-A2B7-BB8CB519C3CA}">
-      <formula1>"Conference Paper, Journal Paper, Short Paper, Poster, Ph.D. Thesis, Workshop"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -2164,9 +2182,12 @@
     <hyperlink ref="G6" r:id="rId21" xr:uid="{067DC93A-81AA-45BD-8907-8F602C993B08}"/>
     <hyperlink ref="K6" r:id="rId22" xr:uid="{1EDD02B0-6EF3-439F-97AE-B557BAE6C2CA}"/>
     <hyperlink ref="Q6" r:id="rId23" xr:uid="{ABA50311-0C32-40E5-ABF3-FCE081CD5CC8}"/>
+    <hyperlink ref="I5" r:id="rId24" xr:uid="{C6A6A874-F90F-4A8A-A5B8-94E35737CAD4}"/>
+    <hyperlink ref="I3" r:id="rId25" display="https://doi.org/10.1145/3745778.3766648" xr:uid="{73768988-E6AD-4037-8CCE-F25B01711F69}"/>
+    <hyperlink ref="I4" r:id="rId26" xr:uid="{82D32E5E-33AD-4390-B404-EABD4766A638}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId24"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF5ADEB4-DE18-4A1B-8C03-7C1290E6F1A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12473392-06AD-4C87-94F0-CB23C216A2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="344">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="345">
   <si>
     <t>doi</t>
   </si>
@@ -1065,6 +1065,9 @@
   </si>
   <si>
     <t xml:space="preserve">User Interface Software and Technology (UIST) 2025 </t>
+  </si>
+  <si>
+    <t>blank2.jpg</t>
   </si>
 </sst>
 </file>
@@ -1485,9 +1488,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1662,7 +1665,7 @@
     </row>
     <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>334</v>
+        <v>344</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12473392-06AD-4C87-94F0-CB23C216A2B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CADC66F-F55E-45A7-902F-ABF4965E34D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="346">
   <si>
     <t>doi</t>
   </si>
@@ -1068,6 +1068,9 @@
   </si>
   <si>
     <t>blank2.jpg</t>
+  </si>
+  <si>
+    <t>ScrapReCover: Interactive Optimization for Freeform Patchwork Layouts</t>
   </si>
 </sst>
 </file>
@@ -1490,7 +1493,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1610,7 +1613,7 @@
         <v>136</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>318</v>
+        <v>345</v>
       </c>
       <c r="E3" s="6" t="s">
         <v>342</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CADC66F-F55E-45A7-902F-ABF4965E34D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F616BF93-7EC4-4CCC-8232-9CF06B3467CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="540" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="347">
   <si>
     <t>doi</t>
   </si>
@@ -974,9 +974,6 @@
     <t>MiGumi: Making Tightly Coupled Integral Joints Millable</t>
   </si>
   <si>
-    <t>SIGGRAPH Asia 2025 (conditionally accepted)</t>
-  </si>
-  <si>
     <t>migumi/migumi.png</t>
   </si>
   <si>
@@ -1071,6 +1068,12 @@
   </si>
   <si>
     <t>ScrapReCover: Interactive Optimization for Freeform Patchwork Layouts</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SIGGRAPH Asia 2025 </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3763304</t>
   </si>
 </sst>
 </file>
@@ -1491,9 +1494,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1566,15 +1569,15 @@
         <v>128</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="R1" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -1586,14 +1589,15 @@
         <v>312</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>313</v>
+        <v>345</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="G2" s="16"/>
       <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
+      <c r="I2" s="16" t="s">
+        <v>346</v>
+      </c>
       <c r="J2" s="16"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
@@ -1604,7 +1608,7 @@
     </row>
     <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -1613,18 +1617,18 @@
         <v>136</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="17" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J3" s="16"/>
       <c r="K3" s="2"/>
@@ -1636,7 +1640,7 @@
     </row>
     <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1645,18 +1649,18 @@
         <v>136</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="J4" s="16"/>
       <c r="K4" s="2"/>
@@ -1668,27 +1672,27 @@
     </row>
     <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>329</v>
-      </c>
       <c r="E5" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="2"/>
@@ -1730,7 +1734,7 @@
         <v>295</v>
       </c>
       <c r="K6" s="16" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1738,12 +1742,12 @@
       <c r="O6" s="1"/>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
@@ -1752,18 +1756,18 @@
         <v>136</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E7" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>332</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="G7" s="16"/>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="J7" s="16"/>
       <c r="K7" s="16"/>
@@ -1854,7 +1858,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>9</v>
@@ -1891,7 +1895,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>10</v>
@@ -1949,7 +1953,7 @@
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>8</v>
@@ -2101,7 +2105,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>16</v>
@@ -2191,9 +2195,10 @@
     <hyperlink ref="I5" r:id="rId24" xr:uid="{C6A6A874-F90F-4A8A-A5B8-94E35737CAD4}"/>
     <hyperlink ref="I3" r:id="rId25" display="https://doi.org/10.1145/3745778.3766648" xr:uid="{73768988-E6AD-4037-8CCE-F25B01711F69}"/>
     <hyperlink ref="I4" r:id="rId26" xr:uid="{82D32E5E-33AD-4390-B404-EABD4766A638}"/>
+    <hyperlink ref="I2" r:id="rId27" xr:uid="{4531307F-785D-45AD-BE0C-8BCE95D4D28C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId27"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -2212,12 +2217,12 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="159.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
@@ -2226,13 +2231,13 @@
         <v>136</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E2" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="F2" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
@@ -2247,7 +2252,7 @@
     </row>
     <row r="3" spans="1:16" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
@@ -2256,13 +2261,13 @@
         <v>136</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F616BF93-7EC4-4CCC-8232-9CF06B3467CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBFB04E-6024-4A4E-AC5B-2649BF16F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="348">
   <si>
     <t>doi</t>
   </si>
@@ -1074,6 +1074,9 @@
   </si>
   <si>
     <t>https://doi.org/10.1145/3763304</t>
+  </si>
+  <si>
+    <t>https://arxiv.org/pdf/2510.13168</t>
   </si>
 </sst>
 </file>
@@ -1494,9 +1497,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1604,7 +1607,9 @@
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="17"/>
+      <c r="P2" s="17" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
@@ -2196,9 +2201,10 @@
     <hyperlink ref="I3" r:id="rId25" display="https://doi.org/10.1145/3745778.3766648" xr:uid="{73768988-E6AD-4037-8CCE-F25B01711F69}"/>
     <hyperlink ref="I4" r:id="rId26" xr:uid="{82D32E5E-33AD-4390-B404-EABD4766A638}"/>
     <hyperlink ref="I2" r:id="rId27" xr:uid="{4531307F-785D-45AD-BE0C-8BCE95D4D28C}"/>
+    <hyperlink ref="P2" r:id="rId28" xr:uid="{8914E4BC-ABF4-4E71-B534-78BD1BD3244A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId28"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDBFB04E-6024-4A4E-AC5B-2649BF16F43E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDDF3EB-8F80-4C4C-8749-D71F0A941132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="350">
   <si>
     <t>doi</t>
   </si>
@@ -1077,6 +1077,12 @@
   </si>
   <si>
     <t>https://arxiv.org/pdf/2510.13168</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3746058.3758470</t>
+  </si>
+  <si>
+    <t>https://jdily.github.io/resource/scraprecover/scraprecover_final.pdf</t>
   </si>
 </sst>
 </file>
@@ -1497,9 +1503,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1641,7 +1647,9 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="17"/>
+      <c r="P3" s="17" t="s">
+        <v>349</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1694,7 +1702,9 @@
       <c r="F5" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="G5" s="16"/>
+      <c r="G5" s="16" t="s">
+        <v>348</v>
+      </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
         <v>338</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EDDF3EB-8F80-4C4C-8749-D71F0A941132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BF9FAC-27E1-4D0F-A51C-78ACA0131C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="350">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="354">
   <si>
     <t>doi</t>
   </si>
@@ -1083,6 +1083,18 @@
   </si>
   <si>
     <t>https://jdily.github.io/resource/scraprecover/scraprecover_final.pdf</t>
+  </si>
+  <si>
+    <t>https://bardofcodes.github.io/migumi/</t>
+  </si>
+  <si>
+    <t>https://github.com/bardofcodes/migumi/</t>
+  </si>
+  <si>
+    <t>https://huggingface.co/datasets/bardofcodes/migumi-dataset</t>
+  </si>
+  <si>
+    <t>upjoint/UPJoint.pdf</t>
   </si>
 </sst>
 </file>
@@ -1144,7 +1156,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1184,6 +1196,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1503,9 +1518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P4" sqref="P4"/>
+      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1607,14 +1622,21 @@
       <c r="I2" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="J2" s="16"/>
-      <c r="K2" s="2"/>
+      <c r="J2" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="K2" s="21" t="s">
+        <v>351</v>
+      </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
       <c r="P2" s="17" t="s">
         <v>347</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
@@ -1670,7 +1692,9 @@
       <c r="F4" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G4" s="16"/>
+      <c r="G4" s="16" t="s">
+        <v>353</v>
+      </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
         <v>340</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2BF9FAC-27E1-4D0F-A51C-78ACA0131C2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9FF80-81F8-4270-A4DA-0645E5BF8170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="548" uniqueCount="354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="355">
   <si>
     <t>doi</t>
   </si>
@@ -1095,6 +1095,9 @@
   </si>
   <si>
     <t>upjoint/UPJoint.pdf</t>
+  </si>
+  <si>
+    <t>various/addcap.pdf</t>
   </si>
 </sst>
 </file>
@@ -1156,7 +1159,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1196,9 +1199,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1520,7 +1520,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G4" sqref="G4"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1625,7 +1625,7 @@
       <c r="J2" s="16" t="s">
         <v>350</v>
       </c>
-      <c r="K2" s="21" t="s">
+      <c r="K2" s="1" t="s">
         <v>351</v>
       </c>
       <c r="L2" s="2"/>
@@ -1692,9 +1692,6 @@
       <c r="F4" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="G4" s="16" t="s">
-        <v>353</v>
-      </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
         <v>340</v>
@@ -1705,7 +1702,9 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="17"/>
+      <c r="P4" s="16" t="s">
+        <v>353</v>
+      </c>
     </row>
     <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1803,7 +1802,9 @@
       <c r="F7" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="G7" s="16"/>
+      <c r="G7" s="16" t="s">
+        <v>354</v>
+      </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
         <v>336</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4E9FF80-81F8-4270-A4DA-0645E5BF8170}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA4392F-50ED-48DE-9753-F0DA2BE3FA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -1082,9 +1082,6 @@
     <t>https://dl.acm.org/doi/pdf/10.1145/3746058.3758470</t>
   </si>
   <si>
-    <t>https://jdily.github.io/resource/scraprecover/scraprecover_final.pdf</t>
-  </si>
-  <si>
     <t>https://bardofcodes.github.io/migumi/</t>
   </si>
   <si>
@@ -1094,10 +1091,13 @@
     <t>https://huggingface.co/datasets/bardofcodes/migumi-dataset</t>
   </si>
   <si>
-    <t>upjoint/UPJoint.pdf</t>
-  </si>
-  <si>
     <t>various/addcap.pdf</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3745778.3766653</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3745778.3766648</t>
   </si>
 </sst>
 </file>
@@ -1518,9 +1518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1623,10 +1623,10 @@
         <v>346</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>350</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>351</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1636,7 +1636,7 @@
         <v>347</v>
       </c>
       <c r="Q2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
@@ -1658,7 +1658,9 @@
       <c r="F3" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="G3" s="16"/>
+      <c r="G3" s="16" t="s">
+        <v>353</v>
+      </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17" t="s">
         <v>339</v>
@@ -1669,9 +1671,7 @@
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
-      <c r="P3" s="17" t="s">
-        <v>349</v>
-      </c>
+      <c r="P3" s="17"/>
     </row>
     <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
@@ -1691,6 +1691,9 @@
       </c>
       <c r="F4" s="6" t="s">
         <v>329</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>354</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
@@ -1702,9 +1705,7 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="16" t="s">
-        <v>353</v>
-      </c>
+      <c r="P4" s="16"/>
     </row>
     <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
@@ -1803,7 +1804,7 @@
         <v>332</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
@@ -2237,9 +2238,10 @@
     <hyperlink ref="I4" r:id="rId26" xr:uid="{82D32E5E-33AD-4390-B404-EABD4766A638}"/>
     <hyperlink ref="I2" r:id="rId27" xr:uid="{4531307F-785D-45AD-BE0C-8BCE95D4D28C}"/>
     <hyperlink ref="P2" r:id="rId28" xr:uid="{8914E4BC-ABF4-4E71-B534-78BD1BD3244A}"/>
+    <hyperlink ref="G4" r:id="rId29" xr:uid="{B3BA4522-828E-4EC8-9284-9AF6C5A7C791}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5BA4392F-50ED-48DE-9753-F0DA2BE3FA98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F127C848-B969-46D8-AB71-A49FFB8149F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
@@ -1076,9 +1076,6 @@
     <t>https://doi.org/10.1145/3763304</t>
   </si>
   <si>
-    <t>https://arxiv.org/pdf/2510.13168</t>
-  </si>
-  <si>
     <t>https://dl.acm.org/doi/pdf/10.1145/3746058.3758470</t>
   </si>
   <si>
@@ -1098,6 +1095,9 @@
   </si>
   <si>
     <t>https://dl.acm.org/doi/pdf/10.1145/3745778.3766648</t>
+  </si>
+  <si>
+    <t>https://dl.acm.org/doi/pdf/10.1145/3763304</t>
   </si>
 </sst>
 </file>
@@ -1518,9 +1518,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1618,25 +1618,26 @@
       <c r="F2" s="6" t="s">
         <v>311</v>
       </c>
+      <c r="G2" t="s">
+        <v>354</v>
+      </c>
       <c r="H2" s="16"/>
       <c r="I2" s="16" t="s">
         <v>346</v>
       </c>
       <c r="J2" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>349</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>350</v>
       </c>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
-      <c r="P2" s="17" t="s">
-        <v>347</v>
-      </c>
+      <c r="P2" s="17"/>
       <c r="Q2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
@@ -1659,7 +1660,7 @@
         <v>315</v>
       </c>
       <c r="G3" s="16" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H3" s="16"/>
       <c r="I3" s="17" t="s">
@@ -1693,7 +1694,7 @@
         <v>329</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H4" s="16"/>
       <c r="I4" s="16" t="s">
@@ -1727,7 +1728,7 @@
         <v>330</v>
       </c>
       <c r="G5" s="16" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
@@ -1804,7 +1805,7 @@
         <v>332</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="H7" s="16"/>
       <c r="I7" s="16" t="s">
@@ -2237,11 +2238,10 @@
     <hyperlink ref="I3" r:id="rId25" display="https://doi.org/10.1145/3745778.3766648" xr:uid="{73768988-E6AD-4037-8CCE-F25B01711F69}"/>
     <hyperlink ref="I4" r:id="rId26" xr:uid="{82D32E5E-33AD-4390-B404-EABD4766A638}"/>
     <hyperlink ref="I2" r:id="rId27" xr:uid="{4531307F-785D-45AD-BE0C-8BCE95D4D28C}"/>
-    <hyperlink ref="P2" r:id="rId28" xr:uid="{8914E4BC-ABF4-4E71-B534-78BD1BD3244A}"/>
-    <hyperlink ref="G4" r:id="rId29" xr:uid="{B3BA4522-828E-4EC8-9284-9AF6C5A7C791}"/>
+    <hyperlink ref="G4" r:id="rId28" xr:uid="{B3BA4522-828E-4EC8-9284-9AF6C5A7C791}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F127C848-B969-46D8-AB71-A49FFB8149F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43502D91-D486-44C1-8A1A-A149CF764879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="3" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="549" uniqueCount="355">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="366">
   <si>
     <t>doi</t>
   </si>
@@ -1098,6 +1098,39 @@
   </si>
   <si>
     <t>https://dl.acm.org/doi/pdf/10.1145/3763304</t>
+  </si>
+  <si>
+    <t>https://marc2825.github.io/ScrapReCover/</t>
+  </si>
+  <si>
+    <t>https://asiagraphics.org/asiagraphics-workshop-on-intelligent-graphics-at-siggraph-asia</t>
+  </si>
+  <si>
+    <t>Workshop on Intelligent Graphics at SIGGRAPH Asia</t>
+  </si>
+  <si>
+    <t>Asiagraphics</t>
+  </si>
+  <si>
+    <t>https://asiagraphics.org/</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>art-ai-fact</t>
+  </si>
+  <si>
+    <t>Aalto University</t>
+  </si>
+  <si>
+    <t>2025-2027</t>
+  </si>
+  <si>
+    <t>https://www.aalto.fi/en/research-art/art-ai-fact</t>
+  </si>
+  <si>
+    <t>https://www.aalto.fi/en/</t>
   </si>
 </sst>
 </file>
@@ -1518,9 +1551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="R2" sqref="R2"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1666,7 +1699,9 @@
       <c r="I3" s="17" t="s">
         <v>339</v>
       </c>
-      <c r="J3" s="16"/>
+      <c r="J3" s="16" t="s">
+        <v>355</v>
+      </c>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1713,7 +1748,7 @@
         <v>343</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>327</v>
@@ -1747,7 +1782,7 @@
         <v>279</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>137</v>
@@ -2239,9 +2274,10 @@
     <hyperlink ref="I4" r:id="rId26" xr:uid="{82D32E5E-33AD-4390-B404-EABD4766A638}"/>
     <hyperlink ref="I2" r:id="rId27" xr:uid="{4531307F-785D-45AD-BE0C-8BCE95D4D28C}"/>
     <hyperlink ref="G4" r:id="rId28" xr:uid="{B3BA4522-828E-4EC8-9284-9AF6C5A7C791}"/>
+    <hyperlink ref="J3" r:id="rId29" xr:uid="{31CFEAD7-A13D-4439-9F4A-98EA840F790B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId29"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -2503,10 +2539,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E4DB9F-8835-4B8C-8A22-87E2D29C9595}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2541,22 +2577,22 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>146</v>
+        <v>361</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>176</v>
+        <v>364</v>
       </c>
       <c r="D2" t="s">
-        <v>147</v>
+        <v>362</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>177</v>
+        <v>365</v>
       </c>
       <c r="F2" t="s">
-        <v>145</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2564,19 +2600,19 @@
         <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>146</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D3" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
@@ -2584,19 +2620,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>148</v>
+        <v>259</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="F4" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.35">
@@ -2604,13 +2640,19 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>173</v>
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>151</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
@@ -2618,46 +2660,62 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C6" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="F6" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" t="s">
         <v>143</v>
       </c>
-      <c r="C6" s="17" t="s">
+      <c r="C7" s="17" t="s">
         <v>172</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>2009</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="6"/>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A9" s="6"/>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A6 A8" xr:uid="{BEC88FFC-EDBD-498E-8051-65373B64ED4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A7 A9" xr:uid="{BEC88FFC-EDBD-498E-8051-65373B64ED4E}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C6" r:id="rId1" xr:uid="{1D246C98-0833-413B-B3AA-F538568C431C}"/>
-    <hyperlink ref="C5" r:id="rId2" xr:uid="{7ACDB926-027B-404C-9C40-4EC3BA5A127E}"/>
-    <hyperlink ref="C3" r:id="rId3" xr:uid="{63A3181E-73EB-425A-BD7A-F2D8E825D5EB}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{953A3BC7-AFCF-4606-95E9-3D68BF6295B3}"/>
-    <hyperlink ref="C2" r:id="rId5" xr:uid="{4D261430-3E64-45E6-B22B-B00759C9BFFC}"/>
-    <hyperlink ref="E2" r:id="rId6" xr:uid="{3F1AA0DD-C41B-4130-B2F5-5BC41E1C4E85}"/>
-    <hyperlink ref="E3" r:id="rId7" xr:uid="{3D9B9720-7260-47D8-8CF4-659FAAE540B1}"/>
-    <hyperlink ref="E4" r:id="rId8" xr:uid="{324D0C20-712E-4091-8CE0-DE4C827478FF}"/>
+    <hyperlink ref="C7" r:id="rId1" xr:uid="{1D246C98-0833-413B-B3AA-F538568C431C}"/>
+    <hyperlink ref="C6" r:id="rId2" xr:uid="{7ACDB926-027B-404C-9C40-4EC3BA5A127E}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{63A3181E-73EB-425A-BD7A-F2D8E825D5EB}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{953A3BC7-AFCF-4606-95E9-3D68BF6295B3}"/>
+    <hyperlink ref="C3" r:id="rId5" xr:uid="{4D261430-3E64-45E6-B22B-B00759C9BFFC}"/>
+    <hyperlink ref="E3" r:id="rId6" xr:uid="{3F1AA0DD-C41B-4130-B2F5-5BC41E1C4E85}"/>
+    <hyperlink ref="E4" r:id="rId7" xr:uid="{3D9B9720-7260-47D8-8CF4-659FAAE540B1}"/>
+    <hyperlink ref="E5" r:id="rId8" xr:uid="{324D0C20-712E-4091-8CE0-DE4C827478FF}"/>
+    <hyperlink ref="C2" r:id="rId9" xr:uid="{3C33FA16-214F-4222-AA63-4403C04D2707}"/>
+    <hyperlink ref="E2" r:id="rId10" xr:uid="{4F89AC55-9F67-430D-96A3-04BDF4B1D154}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId11"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
-  <dimension ref="A1:J33"/>
+  <dimension ref="A1:J34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14:H14"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2701,21 +2759,25 @@
         <v>7</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>303</v>
-      </c>
-      <c r="D2" s="7"/>
+        <v>357</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>356</v>
+      </c>
       <c r="E2" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="F2" s="14"/>
+        <v>358</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>359</v>
+      </c>
       <c r="G2" s="10" t="s">
-        <v>58</v>
+        <v>360</v>
       </c>
       <c r="H2" s="11">
-        <v>45838</v>
+        <v>46007</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2723,25 +2785,21 @@
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>132</v>
-      </c>
+        <v>303</v>
+      </c>
+      <c r="D3" s="7"/>
       <c r="E3" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F3" s="14" t="s">
-        <v>93</v>
-      </c>
+        <v>302</v>
+      </c>
+      <c r="F3" s="14"/>
       <c r="G3" s="10" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="H3" s="11">
-        <v>45698</v>
+        <v>45838</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2752,18 +2810,22 @@
         <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="10"/>
+        <v>131</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>132</v>
+      </c>
       <c r="E4" s="10" t="s">
-        <v>60</v>
-      </c>
-      <c r="F4" s="14"/>
+        <v>84</v>
+      </c>
+      <c r="F4" s="14" t="s">
+        <v>93</v>
+      </c>
       <c r="G4" s="10" t="s">
-        <v>58</v>
+        <v>67</v>
       </c>
       <c r="H4" s="11">
-        <v>45630</v>
+        <v>45698</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
@@ -2774,41 +2836,41 @@
         <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>125</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>123</v>
+      </c>
+      <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
-        <v>124</v>
+        <v>60</v>
       </c>
       <c r="F5" s="14"/>
       <c r="G5" s="10" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="H5" s="11">
         <v>45630</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
+      <c r="C6" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="D6" s="7"/>
       <c r="E6" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="F6" s="14"/>
       <c r="G6" s="10" t="s">
-        <v>122</v>
+        <v>72</v>
       </c>
       <c r="H6" s="11">
-        <v>45622</v>
-      </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="12"/>
+        <v>45630</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="9" t="s">
@@ -2817,21 +2879,17 @@
       <c r="B7" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>114</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>115</v>
-      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
       <c r="E7" s="10" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="F7" s="14"/>
       <c r="G7" s="10" t="s">
-        <v>65</v>
+        <v>122</v>
       </c>
       <c r="H7" s="11">
-        <v>45597</v>
+        <v>45622</v>
       </c>
       <c r="I7" s="11"/>
       <c r="J7" s="12"/>
@@ -2841,23 +2899,23 @@
         <v>8</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>100</v>
+        <v>54</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="D8" s="10"/>
+        <v>114</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>115</v>
+      </c>
       <c r="E8" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>89</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="F8" s="14"/>
       <c r="G8" s="10" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="H8" s="11">
-        <v>45547</v>
+        <v>45597</v>
       </c>
       <c r="I8" s="11"/>
       <c r="J8" s="12"/>
@@ -2867,21 +2925,23 @@
         <v>8</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C9" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="H9" s="11">
-        <v>45481</v>
+        <v>45547</v>
       </c>
       <c r="I9" s="11"/>
       <c r="J9" s="12"/>
@@ -2891,21 +2951,21 @@
         <v>8</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>81</v>
+        <v>55</v>
       </c>
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>94</v>
+        <v>62</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>88</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H10" s="11">
-        <v>45364</v>
+        <v>45481</v>
       </c>
       <c r="I10" s="11"/>
       <c r="J10" s="12"/>
@@ -2915,25 +2975,21 @@
         <v>8</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>92</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>84</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>93</v>
+        <v>64</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>94</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H11" s="11">
-        <v>45334</v>
+        <v>45364</v>
       </c>
       <c r="I11" s="11"/>
       <c r="J11" s="12"/>
@@ -2943,25 +2999,25 @@
         <v>8</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>100</v>
+        <v>57</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>85</v>
+        <v>66</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H12" s="11">
-        <v>45177</v>
+        <v>45334</v>
       </c>
       <c r="I12" s="11"/>
       <c r="J12" s="12"/>
@@ -2974,20 +3030,22 @@
         <v>100</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="D13" s="10"/>
+        <v>85</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>86</v>
+      </c>
       <c r="E13" s="10" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="F13" s="14" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="H13" s="11">
-        <v>44841</v>
+        <v>45177</v>
       </c>
       <c r="I13" s="11"/>
       <c r="J13" s="12"/>
@@ -2997,21 +3055,23 @@
         <v>8</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F14" s="10"/>
+        <v>61</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>90</v>
+      </c>
       <c r="G14" s="10" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="H14" s="11">
-        <v>44768</v>
+        <v>44841</v>
       </c>
       <c r="I14" s="11"/>
       <c r="J14" s="12"/>
@@ -3024,18 +3084,18 @@
         <v>56</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>105</v>
+        <v>71</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10" t="s">
         <v>72</v>
       </c>
       <c r="H15" s="11">
-        <v>44638</v>
+        <v>44768</v>
       </c>
       <c r="I15" s="11"/>
       <c r="J15" s="12"/>
@@ -3045,21 +3105,21 @@
         <v>8</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="C16" s="10"/>
+        <v>56</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>105</v>
+      </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>99</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="10" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="H16" s="11">
-        <v>44539</v>
+        <v>44638</v>
       </c>
       <c r="I16" s="11"/>
       <c r="J16" s="12"/>
@@ -3069,23 +3129,21 @@
         <v>8</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="D17" s="14" t="s">
-        <v>98</v>
-      </c>
+        <v>100</v>
+      </c>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
       <c r="E17" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="F17" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>99</v>
+      </c>
       <c r="G17" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>76</v>
+        <v>75</v>
+      </c>
+      <c r="H17" s="11">
+        <v>44539</v>
       </c>
       <c r="I17" s="11"/>
       <c r="J17" s="12"/>
@@ -3095,37 +3153,51 @@
         <v>8</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>96</v>
-      </c>
-      <c r="D18" s="10"/>
+        <v>77</v>
+      </c>
+      <c r="D18" s="14" t="s">
+        <v>98</v>
+      </c>
       <c r="E18" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>95</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H18" s="11">
-        <v>44065</v>
+      <c r="H18" s="11" t="s">
+        <v>76</v>
       </c>
       <c r="I18" s="11"/>
       <c r="J18" s="12"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10"/>
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
+      <c r="E19" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H19" s="11">
+        <v>44065</v>
+      </c>
+      <c r="I19" s="11"/>
       <c r="J19" s="12"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.35">
@@ -3220,7 +3292,7 @@
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="10"/>
-      <c r="H27" s="13"/>
+      <c r="H27" s="11"/>
       <c r="I27" s="12"/>
       <c r="J27" s="12"/>
     </row>
@@ -3285,39 +3357,53 @@
       <c r="J32" s="12"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
-      <c r="C33" s="12"/>
-      <c r="D33" s="12"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="12"/>
-      <c r="G33" s="12"/>
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
       <c r="H33" s="13"/>
       <c r="I33" s="12"/>
       <c r="J33" s="12"/>
     </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A34" s="12"/>
+      <c r="B34" s="12"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="12"/>
+      <c r="G34" s="12"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="12"/>
+      <c r="J34" s="12"/>
+    </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A31" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A32" xr:uid="{11CF0EC6-33AA-4CA8-819D-744489DDFE5C}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B36" xr:uid="{16C64E53-2172-45F3-A93B-3E5A0D78D43C}">
       <formula1>"Invited talk, Paper presentation, Keynote, Selected presentation, Invited lecture, Opening presentation, Invited presentation"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="F12" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
-    <hyperlink ref="F9" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
-    <hyperlink ref="F8" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
-    <hyperlink ref="F11" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
-    <hyperlink ref="D17" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
-    <hyperlink ref="F13" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
-    <hyperlink ref="D7" r:id="rId7" xr:uid="{34355159-367A-4386-8EA1-41F107F01C00}"/>
-    <hyperlink ref="F3" r:id="rId8" xr:uid="{06C5679C-AB59-4513-A73D-A58986320FB0}"/>
-    <hyperlink ref="D3" r:id="rId9" xr:uid="{F23263A3-02A8-4F59-A063-C73420A9989E}"/>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{1D90A163-8871-477D-8910-2D90B72BDD04}"/>
+    <hyperlink ref="F10" r:id="rId2" xr:uid="{7E78F64B-5443-4C8B-A8AB-77A0D4CCC4BC}"/>
+    <hyperlink ref="F9" r:id="rId3" xr:uid="{A339F862-8082-4ADB-B834-820B766BF188}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{77AE74F0-4FDF-4939-A600-3A25E9FB8178}"/>
+    <hyperlink ref="D18" r:id="rId5" xr:uid="{4B557E4B-523F-404A-B052-DAAD74D161B8}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{E28FCE4A-5825-4593-8D4D-10FEC8634679}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{34355159-367A-4386-8EA1-41F107F01C00}"/>
+    <hyperlink ref="F4" r:id="rId8" xr:uid="{06C5679C-AB59-4513-A73D-A58986320FB0}"/>
+    <hyperlink ref="D4" r:id="rId9" xr:uid="{F23263A3-02A8-4F59-A063-C73420A9989E}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{DF862337-5265-43E9-819B-4F1A429DA23B}"/>
+    <hyperlink ref="F2" r:id="rId11" xr:uid="{017CE687-AEC1-4994-90ED-F95DFF18A256}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId12"/>
 </worksheet>
 </file>
 
@@ -3369,7 +3455,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>288</v>
@@ -4067,7 +4153,7 @@
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4101,7 +4187,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B2" t="s">
         <v>310</v>
@@ -4115,7 +4201,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
         <v>307</v>
@@ -4132,7 +4218,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
         <v>309</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43502D91-D486-44C1-8A1A-A149CF764879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1988ADE8-FCD0-4F98-B271-04C4BEBF3F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="3" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="4" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -1106,9 +1106,6 @@
     <t>https://asiagraphics.org/asiagraphics-workshop-on-intelligent-graphics-at-siggraph-asia</t>
   </si>
   <si>
-    <t>Workshop on Intelligent Graphics at SIGGRAPH Asia</t>
-  </si>
-  <si>
     <t>Asiagraphics</t>
   </si>
   <si>
@@ -1131,6 +1128,9 @@
   </si>
   <si>
     <t>https://www.aalto.fi/en/</t>
+  </si>
+  <si>
+    <t>Workshop on Intelligent Graphics</t>
   </si>
 </sst>
 </file>
@@ -2541,7 +2541,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29E4DB9F-8835-4B8C-8A22-87E2D29C9595}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -2580,19 +2580,19 @@
         <v>7</v>
       </c>
       <c r="B2" t="s">
+        <v>360</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="D2" t="s">
         <v>361</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="E2" s="17" t="s">
         <v>364</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" t="s">
         <v>362</v>
-      </c>
-      <c r="E2" s="17" t="s">
-        <v>365</v>
-      </c>
-      <c r="F2" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
@@ -2713,9 +2713,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2762,19 +2762,19 @@
         <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>356</v>
       </c>
       <c r="E2" s="10" t="s">
+        <v>357</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>358</v>
       </c>
-      <c r="F2" s="7" t="s">
+      <c r="G2" s="10" t="s">
         <v>359</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>360</v>
       </c>
       <c r="H2" s="11">
         <v>46007</v>

--- a/info.xlsx
+++ b/info.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\makal\git\marialarsson.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1988ADE8-FCD0-4F98-B271-04C4BEBF3F13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9850D383-4EF9-4660-B5FA-94E5790E55DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" firstSheet="1" activeTab="4" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="24220" windowHeight="15500" xr2:uid="{6E7444F3-913F-49EF-AA54-6B6F5F9F19BF}"/>
   </bookViews>
   <sheets>
     <sheet name="publications" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="366">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="370">
   <si>
     <t>doi</t>
   </si>
@@ -1131,6 +1131,18 @@
   </si>
   <si>
     <t>Workshop on Intelligent Graphics</t>
+  </si>
+  <si>
+    <t>skcad/skcad.png</t>
+  </si>
+  <si>
+    <t>skCAD: A Design Tool for Solid Knitting with Automatic Pattern Generation</t>
+  </si>
+  <si>
+    <t>Human Factors in Computing Systems (CHI) 2026</t>
+  </si>
+  <si>
+    <t>Yuichi Hirose, Maria Larsson, and Takeo Igarashi</t>
   </si>
 </sst>
 </file>
@@ -1549,11 +1561,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DEF795-A0C0-41C6-A157-3DC44FC6ACF5}">
-  <dimension ref="A1:R32"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1634,84 +1646,77 @@
     </row>
     <row r="2" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
-        <v>313</v>
+        <v>366</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="G2" t="s">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="H2" s="16"/>
-      <c r="I2" s="16" t="s">
-        <v>346</v>
-      </c>
-      <c r="J2" s="16" t="s">
-        <v>348</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>349</v>
-      </c>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="1"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="1"/>
       <c r="P2" s="17"/>
-      <c r="Q2" t="s">
-        <v>350</v>
-      </c>
     </row>
     <row r="3" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
-        <v>334</v>
+        <v>313</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="E3" s="6" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="16" t="s">
-        <v>352</v>
+        <v>311</v>
+      </c>
+      <c r="G3" t="s">
+        <v>354</v>
       </c>
       <c r="H3" s="16"/>
-      <c r="I3" s="17" t="s">
-        <v>339</v>
+      <c r="I3" s="16" t="s">
+        <v>346</v>
       </c>
       <c r="J3" s="16" t="s">
-        <v>355</v>
-      </c>
-      <c r="K3" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>349</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
       <c r="O3" s="1"/>
       <c r="P3" s="17"/>
+      <c r="Q3" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="4" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="6" t="s">
         <v>7</v>
@@ -1720,54 +1725,56 @@
         <v>136</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>318</v>
+        <v>344</v>
       </c>
       <c r="E4" s="6" t="s">
         <v>341</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>353</v>
+        <v>315</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>352</v>
       </c>
       <c r="H4" s="16"/>
-      <c r="I4" s="16" t="s">
-        <v>340</v>
-      </c>
-      <c r="J4" s="16"/>
+      <c r="I4" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>355</v>
+      </c>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" s="1"/>
-      <c r="P4" s="16"/>
-    </row>
-    <row r="5" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>327</v>
+        <v>136</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="G5" s="16" t="s">
-        <v>347</v>
+        <v>329</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>353</v>
       </c>
       <c r="H5" s="16"/>
       <c r="I5" s="16" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="J5" s="16"/>
       <c r="K5" s="2"/>
@@ -1775,89 +1782,88 @@
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" s="1"/>
-      <c r="P5" s="17"/>
+      <c r="P5" s="16"/>
     </row>
     <row r="6" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
-        <v>279</v>
+        <v>343</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>137</v>
+        <v>327</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>280</v>
+        <v>328</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>284</v>
+        <v>342</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>304</v>
-      </c>
-      <c r="H6" s="16" t="s">
-        <v>282</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="H6" s="16"/>
       <c r="I6" s="16" t="s">
-        <v>287</v>
-      </c>
-      <c r="J6" s="16" t="s">
-        <v>295</v>
-      </c>
-      <c r="K6" s="16" t="s">
-        <v>322</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="J6" s="16"/>
+      <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
       <c r="O6" s="1"/>
       <c r="P6" s="17"/>
-      <c r="Q6" s="17" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" ht="29" x14ac:dyDescent="0.35">
+    </row>
+    <row r="7" spans="1:18" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
-        <v>333</v>
+        <v>279</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>326</v>
+        <v>280</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>331</v>
+        <v>284</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>351</v>
-      </c>
-      <c r="H7" s="16"/>
+        <v>304</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>282</v>
+      </c>
       <c r="I7" s="16" t="s">
-        <v>336</v>
-      </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
+        <v>287</v>
+      </c>
+      <c r="J7" s="16" t="s">
+        <v>295</v>
+      </c>
+      <c r="K7" s="16" t="s">
+        <v>322</v>
+      </c>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
       <c r="O7" s="1"/>
       <c r="P7" s="17"/>
-      <c r="Q7" s="17"/>
+      <c r="Q7" s="17" t="s">
+        <v>324</v>
+      </c>
     </row>
     <row r="8" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
-        <v>262</v>
+        <v>333</v>
       </c>
       <c r="B8" s="6" t="s">
         <v>8</v>
@@ -1866,34 +1872,33 @@
         <v>136</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>129</v>
+        <v>326</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>135</v>
+        <v>331</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>130</v>
+        <v>332</v>
       </c>
       <c r="G8" s="16" t="s">
-        <v>294</v>
-      </c>
-      <c r="H8" s="16" t="s">
-        <v>134</v>
-      </c>
-      <c r="I8" s="17" t="s">
-        <v>292</v>
-      </c>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
+        <v>351</v>
+      </c>
+      <c r="H8" s="16"/>
+      <c r="I8" s="16" t="s">
+        <v>336</v>
+      </c>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
       <c r="O8" s="1"/>
       <c r="P8" s="17"/>
+      <c r="Q8" s="17"/>
     </row>
     <row r="9" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>8</v>
@@ -1902,22 +1907,22 @@
         <v>136</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E9" s="6" t="s">
         <v>135</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G9" s="16" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>133</v>
-      </c>
-      <c r="I9" s="16" t="s">
-        <v>291</v>
+        <v>134</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>292</v>
       </c>
       <c r="J9" s="2"/>
       <c r="K9" s="2"/>
@@ -1929,44 +1934,43 @@
     </row>
     <row r="10" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="B10" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>337</v>
+        <v>136</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>26</v>
+        <v>135</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>113</v>
+        <v>127</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>293</v>
       </c>
       <c r="H10" s="16" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="I10" s="16" t="s">
-        <v>117</v>
+        <v>291</v>
       </c>
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="1" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="O10" s="1"/>
+      <c r="P10" s="17"/>
+    </row>
+    <row r="11" spans="1:18" ht="29" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B11" s="6" t="s">
         <v>8</v>
@@ -1975,52 +1979,56 @@
         <v>337</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="8" t="s">
-        <v>275</v>
-      </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="6"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="6"/>
-      <c r="O11" s="6"/>
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="H11" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="I11" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="1" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="12" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>137</v>
+        <v>337</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E12" s="6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>47</v>
+        <v>28</v>
+      </c>
+      <c r="G12" s="8" t="s">
+        <v>275</v>
       </c>
       <c r="H12" s="6"/>
-      <c r="I12" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="I12" s="6"/>
       <c r="J12" s="6"/>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -2030,118 +2038,110 @@
     </row>
     <row r="13" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="B13" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>48</v>
+        <v>137</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E13" s="6" t="s">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>29</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+      <c r="I13" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="J13" s="6"/>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
-      <c r="M13" s="6" t="s">
-        <v>273</v>
-      </c>
-      <c r="N13" s="6" t="s">
-        <v>274</v>
-      </c>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
       <c r="O13" s="6"/>
     </row>
     <row r="14" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
-        <v>267</v>
+        <v>333</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>283</v>
+        <v>50</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="H14" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="I14" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J14" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="6"/>
+      <c r="M14" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="N14" s="6" t="s">
+        <v>274</v>
+      </c>
       <c r="O14" s="6"/>
     </row>
     <row r="15" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B15" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>23</v>
+        <v>283</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>272</v>
+        <v>45</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="I15" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="K15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="L15" s="6" t="s">
-        <v>104</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
       <c r="M15" s="6"/>
       <c r="N15" s="6"/>
       <c r="O15" s="6"/>
     </row>
     <row r="16" spans="1:18" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>8</v>
@@ -2150,57 +2150,63 @@
         <v>136</v>
       </c>
       <c r="D16" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E16" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="6"/>
+        <v>40</v>
+      </c>
+      <c r="J16" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L16" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="M16" s="6"/>
       <c r="N16" s="6"/>
       <c r="O16" s="6"/>
     </row>
     <row r="17" spans="1:15" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>337</v>
+        <v>136</v>
       </c>
       <c r="D17" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E17" s="6" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J17" s="6"/>
       <c r="K17" s="6"/>
@@ -2209,8 +2215,40 @@
       <c r="N17" s="6"/>
       <c r="O17" s="6"/>
     </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" s="6" t="s">
+        <v>264</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
       <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
     </row>
     <row r="19" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L19" s="6"/>
@@ -2218,7 +2256,9 @@
     <row r="20" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
       <c r="L20" s="6"/>
     </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="L21" s="6"/>
+    </row>
     <row r="22" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="23" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
@@ -2230,51 +2270,52 @@
     <row r="30" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="31" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
     <row r="32" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
+    <row r="33" s="3" customFormat="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C18:C36" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C19:C37" xr:uid="{2E0328BF-4929-4436-9648-D3AA03538306}">
       <formula1>"Technical paper, Short technical paper, Poster, Ph.D. Thesis"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3:C4" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C4:C5" xr:uid="{55061444-834F-46D2-84B3-51C6578B02DB}">
       <formula1>"Conference Paper, Journal Paper, Short paper, Poster, Ph.D. Thesis, Workshop"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2 C5:C17" xr:uid="{AD0C0355-A892-4697-A2B7-BB8CB519C3CA}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C3 C6:C18" xr:uid="{AD0C0355-A892-4697-A2B7-BB8CB519C3CA}">
       <formula1>"Conference Paper, Journal Paper, Short Paper, Poster, Ph.D. Thesis, Workshop"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B34" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B35" xr:uid="{222E3F14-06E3-40E8-ABD7-04C522CFA8C8}">
       <formula1>"yes,no"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="I17" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
-    <hyperlink ref="H17" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
-    <hyperlink ref="H16" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
-    <hyperlink ref="I16" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
-    <hyperlink ref="K15" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
-    <hyperlink ref="I15" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
-    <hyperlink ref="H15" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
-    <hyperlink ref="I14" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
-    <hyperlink ref="H14" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
-    <hyperlink ref="I12" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
-    <hyperlink ref="I10" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
-    <hyperlink ref="H10" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
-    <hyperlink ref="H9" r:id="rId13" xr:uid="{D2124DA5-21CA-4C5C-90D9-FAE4DBCFE470}"/>
-    <hyperlink ref="H8" r:id="rId14" xr:uid="{DC553953-6A36-4D7D-B907-7E8C7FDD75F8}"/>
-    <hyperlink ref="H6" r:id="rId15" xr:uid="{DD7DACAE-B55C-4373-B7AC-6C3EDFE94B3A}"/>
-    <hyperlink ref="I6" r:id="rId16" xr:uid="{27366247-242C-4CD2-A49A-93C9ABFF0158}"/>
-    <hyperlink ref="I8" r:id="rId17" xr:uid="{A9177797-A40B-463E-8432-F935D521C352}"/>
-    <hyperlink ref="G9" r:id="rId18" xr:uid="{9D746FE8-BC83-456F-AF30-7A4F47F90359}"/>
-    <hyperlink ref="G8" r:id="rId19" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
-    <hyperlink ref="J6" r:id="rId20" xr:uid="{37916EEF-CB37-432C-9DB0-852ECB1981C4}"/>
-    <hyperlink ref="G6" r:id="rId21" xr:uid="{067DC93A-81AA-45BD-8907-8F602C993B08}"/>
-    <hyperlink ref="K6" r:id="rId22" xr:uid="{1EDD02B0-6EF3-439F-97AE-B557BAE6C2CA}"/>
-    <hyperlink ref="Q6" r:id="rId23" xr:uid="{ABA50311-0C32-40E5-ABF3-FCE081CD5CC8}"/>
-    <hyperlink ref="I5" r:id="rId24" xr:uid="{C6A6A874-F90F-4A8A-A5B8-94E35737CAD4}"/>
-    <hyperlink ref="I3" r:id="rId25" display="https://doi.org/10.1145/3745778.3766648" xr:uid="{73768988-E6AD-4037-8CCE-F25B01711F69}"/>
-    <hyperlink ref="I4" r:id="rId26" xr:uid="{82D32E5E-33AD-4390-B404-EABD4766A638}"/>
-    <hyperlink ref="I2" r:id="rId27" xr:uid="{4531307F-785D-45AD-BE0C-8BCE95D4D28C}"/>
-    <hyperlink ref="G4" r:id="rId28" xr:uid="{B3BA4522-828E-4EC8-9284-9AF6C5A7C791}"/>
-    <hyperlink ref="J3" r:id="rId29" xr:uid="{31CFEAD7-A13D-4439-9F4A-98EA840F790B}"/>
+    <hyperlink ref="I18" r:id="rId1" xr:uid="{0C9E2DD9-EC22-4E35-9788-0808AFCD23D7}"/>
+    <hyperlink ref="H18" r:id="rId2" xr:uid="{FCDC07DA-7E18-40F7-928E-A15930495588}"/>
+    <hyperlink ref="H17" r:id="rId3" xr:uid="{CAD0EA24-D0FA-48AC-BADA-3279BDF9C7CA}"/>
+    <hyperlink ref="I17" r:id="rId4" xr:uid="{639643E7-CB23-4D4E-B555-442A092913EB}"/>
+    <hyperlink ref="K16" r:id="rId5" xr:uid="{9A96A4F8-353E-4922-BBF3-494ADC473312}"/>
+    <hyperlink ref="I16" r:id="rId6" xr:uid="{75C829F8-391E-4CEE-AC9D-BBCAA47EE727}"/>
+    <hyperlink ref="H16" r:id="rId7" xr:uid="{5CB5D5F9-AD04-4915-884A-8BC9819CF757}"/>
+    <hyperlink ref="I15" r:id="rId8" xr:uid="{D3587D7C-99AD-4BAF-8AF0-518D84512675}"/>
+    <hyperlink ref="H15" r:id="rId9" xr:uid="{961356D6-5B9D-4E09-A91B-C87DC608359F}"/>
+    <hyperlink ref="I13" r:id="rId10" xr:uid="{CA00D664-2FD2-4C89-8FB7-8E5151833221}"/>
+    <hyperlink ref="I11" r:id="rId11" xr:uid="{C5E18302-A844-494C-AF44-FE8B6DE35C33}"/>
+    <hyperlink ref="H11" r:id="rId12" xr:uid="{3AD17A46-F16E-4A5C-9D1D-891F60576275}"/>
+    <hyperlink ref="H10" r:id="rId13" xr:uid="{D2124DA5-21CA-4C5C-90D9-FAE4DBCFE470}"/>
+    <hyperlink ref="H9" r:id="rId14" xr:uid="{DC553953-6A36-4D7D-B907-7E8C7FDD75F8}"/>
+    <hyperlink ref="H7" r:id="rId15" xr:uid="{DD7DACAE-B55C-4373-B7AC-6C3EDFE94B3A}"/>
+    <hyperlink ref="I7" r:id="rId16" xr:uid="{27366247-242C-4CD2-A49A-93C9ABFF0158}"/>
+    <hyperlink ref="I9" r:id="rId17" xr:uid="{A9177797-A40B-463E-8432-F935D521C352}"/>
+    <hyperlink ref="G10" r:id="rId18" xr:uid="{9D746FE8-BC83-456F-AF30-7A4F47F90359}"/>
+    <hyperlink ref="G9" r:id="rId19" xr:uid="{AB497A86-DB93-429E-AED8-DEFBD9F1078A}"/>
+    <hyperlink ref="J7" r:id="rId20" xr:uid="{37916EEF-CB37-432C-9DB0-852ECB1981C4}"/>
+    <hyperlink ref="G7" r:id="rId21" xr:uid="{067DC93A-81AA-45BD-8907-8F602C993B08}"/>
+    <hyperlink ref="K7" r:id="rId22" xr:uid="{1EDD02B0-6EF3-439F-97AE-B557BAE6C2CA}"/>
+    <hyperlink ref="Q7" r:id="rId23" xr:uid="{ABA50311-0C32-40E5-ABF3-FCE081CD5CC8}"/>
+    <hyperlink ref="I6" r:id="rId24" xr:uid="{C6A6A874-F90F-4A8A-A5B8-94E35737CAD4}"/>
+    <hyperlink ref="I4" r:id="rId25" display="https://doi.org/10.1145/3745778.3766648" xr:uid="{73768988-E6AD-4037-8CCE-F25B01711F69}"/>
+    <hyperlink ref="I5" r:id="rId26" xr:uid="{82D32E5E-33AD-4390-B404-EABD4766A638}"/>
+    <hyperlink ref="I3" r:id="rId27" xr:uid="{4531307F-785D-45AD-BE0C-8BCE95D4D28C}"/>
+    <hyperlink ref="G5" r:id="rId28" xr:uid="{B3BA4522-828E-4EC8-9284-9AF6C5A7C791}"/>
+    <hyperlink ref="J4" r:id="rId29" xr:uid="{31CFEAD7-A13D-4439-9F4A-98EA840F790B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId30"/>
@@ -2713,7 +2754,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D41A717-6463-468B-9F1E-576D71938991}">
   <dimension ref="A1:J34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
